--- a/CHATGAME/Assets/Data/dialogue.xlsx
+++ b/CHATGAME/Assets/Data/dialogue.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\one\Desktop\미연시\AI-CHATBOT-GAME\CHATGAME\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF7A3EC-09C8-4F2E-B591-027B7E556B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534B41AA-C94E-4BD0-A065-5F740EC3A383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-945" windowWidth="29040" windowHeight="15840" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="affection">Sheet1!$B$1</definedName>
+    <definedName name="category">Sheet1!$C$1</definedName>
+    <definedName name="id">Sheet1!$A$1</definedName>
+    <definedName name="number">Sheet1!$D$1</definedName>
+    <definedName name="text">Sheet1!$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -175,9 +182,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,37 +529,37 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
-    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
     <col min="5" max="5" width="223.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
@@ -563,7 +576,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
@@ -580,7 +593,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
@@ -597,7 +610,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
@@ -614,7 +627,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
@@ -631,7 +644,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
@@ -648,7 +661,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
@@ -665,7 +678,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
@@ -682,7 +695,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
@@ -699,7 +712,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
@@ -716,7 +729,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
@@ -733,7 +746,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
@@ -750,7 +763,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14">
@@ -767,7 +780,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15">
@@ -784,7 +797,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16">
@@ -801,7 +814,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17">
@@ -818,7 +831,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18">
@@ -835,7 +848,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19">

--- a/CHATGAME/Assets/Data/dialogue.xlsx
+++ b/CHATGAME/Assets/Data/dialogue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\one\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\one\Desktop\미연시\AI-CHATBOT-GAME\CHATGAME\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A932DFAF-D8CF-4183-A299-9D934F2AE6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2A7476-4447-490E-8D37-4FDE8C3A809C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="2010" windowWidth="21600" windowHeight="13245" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
+    <workbookView xWindow="31695" yWindow="720" windowWidth="22245" windowHeight="13245" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>event</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>affection</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,10 +63,6 @@
   </si>
   <si>
     <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>twitter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -940,9 +932,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>poke</t>
-  </si>
-  <si>
     <t>"내 신경 쓸 시간에 숙제라도 하나 더 하지 그래?"
 리코는 책에서 눈을 돌리지도 않고 당신에게 쏘아붙힌다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -973,6 +962,15 @@
 "그, 그렇지만 이상한 생각 하지 마! 아까도 말했지만, 정말로 별 거 아니니까..."
 한참 늦은 타이밍에 얼른 변명을 덧붙히지만, 당신의 손에서 멀어질 생각은 없는 듯 하다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poke</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Twitter</t>
   </si>
 </sst>
 </file>
@@ -1010,12 +1008,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1032,7 +1036,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1041,6 +1045,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1379,7 +1386,7 @@
   <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1396,16 +1403,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1415,14 +1422,14 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>88</v>
+      <c r="C2" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1432,14 +1439,14 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>88</v>
+      <c r="C3" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1449,14 +1456,14 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
-        <v>88</v>
+      <c r="C4" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1466,14 +1473,14 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
-        <v>88</v>
+      <c r="C5" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1483,14 +1490,14 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
-        <v>88</v>
+      <c r="C6" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1500,14 +1507,14 @@
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
-        <v>88</v>
+      <c r="C7" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1518,13 +1525,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1535,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1551,14 +1558,14 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>88</v>
+      <c r="C10" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1568,14 +1575,14 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>88</v>
+      <c r="C11" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1585,14 +1592,14 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>88</v>
+      <c r="C12" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1602,14 +1609,14 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>88</v>
+      <c r="C13" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1619,14 +1626,14 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>88</v>
+      <c r="C14" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1636,14 +1643,14 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>88</v>
+      <c r="C15" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1653,14 +1660,14 @@
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
-        <v>88</v>
+      <c r="C16" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D16">
         <v>7</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
@@ -1671,13 +1678,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
@@ -1688,13 +1695,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1705,13 +1712,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
@@ -1721,14 +1728,14 @@
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
-        <v>88</v>
+      <c r="C20" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1738,14 +1745,14 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
-        <v>88</v>
+      <c r="C21" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1755,14 +1762,14 @@
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22" t="s">
-        <v>88</v>
+      <c r="C22" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1772,14 +1779,14 @@
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" t="s">
-        <v>88</v>
+      <c r="C23" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1789,14 +1796,14 @@
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
-        <v>88</v>
+      <c r="C24" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D24">
         <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1806,14 +1813,14 @@
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25" t="s">
-        <v>88</v>
+      <c r="C25" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D25">
         <v>6</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1823,14 +1830,14 @@
       <c r="B26">
         <v>2</v>
       </c>
-      <c r="C26" t="s">
-        <v>88</v>
+      <c r="C26" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D26">
         <v>7</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1840,14 +1847,14 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27" t="s">
-        <v>88</v>
+      <c r="C27" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1857,14 +1864,14 @@
       <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28" t="s">
-        <v>88</v>
+      <c r="C28" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D28">
         <v>9</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1874,14 +1881,14 @@
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
-        <v>88</v>
+      <c r="C29" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D29">
         <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1891,14 +1898,14 @@
       <c r="B30">
         <v>2</v>
       </c>
-      <c r="C30" t="s">
-        <v>88</v>
+      <c r="C30" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D30">
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1908,14 +1915,14 @@
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31" t="s">
-        <v>88</v>
+      <c r="C31" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D31">
         <v>12</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1925,14 +1932,14 @@
       <c r="B32">
         <v>2</v>
       </c>
-      <c r="C32" t="s">
-        <v>88</v>
+      <c r="C32" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D32">
         <v>13</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1942,14 +1949,14 @@
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33" t="s">
-        <v>88</v>
+      <c r="C33" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D33">
         <v>14</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1959,14 +1966,14 @@
       <c r="B34">
         <v>2</v>
       </c>
-      <c r="C34" t="s">
-        <v>88</v>
+      <c r="C34" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D34">
         <v>15</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1976,14 +1983,14 @@
       <c r="B35">
         <v>2</v>
       </c>
-      <c r="C35" t="s">
-        <v>88</v>
+      <c r="C35" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D35">
         <v>16</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -1993,14 +2000,14 @@
       <c r="B36">
         <v>2</v>
       </c>
-      <c r="C36" t="s">
-        <v>88</v>
+      <c r="C36" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D36">
         <v>17</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -2010,14 +2017,14 @@
       <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37" t="s">
-        <v>88</v>
+      <c r="C37" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D37">
         <v>18</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -2027,14 +2034,14 @@
       <c r="B38">
         <v>2</v>
       </c>
-      <c r="C38" t="s">
-        <v>88</v>
+      <c r="C38" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D38">
         <v>19</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -2044,14 +2051,14 @@
       <c r="B39">
         <v>2</v>
       </c>
-      <c r="C39" t="s">
-        <v>88</v>
+      <c r="C39" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D39">
         <v>20</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -2061,14 +2068,14 @@
       <c r="B40">
         <v>2</v>
       </c>
-      <c r="C40" t="s">
-        <v>88</v>
+      <c r="C40" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D40">
         <v>21</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -2078,14 +2085,14 @@
       <c r="B41">
         <v>2</v>
       </c>
-      <c r="C41" t="s">
-        <v>88</v>
+      <c r="C41" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D41">
         <v>22</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -2095,14 +2102,14 @@
       <c r="B42">
         <v>2</v>
       </c>
-      <c r="C42" t="s">
-        <v>88</v>
+      <c r="C42" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D42">
         <v>23</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -2112,14 +2119,14 @@
       <c r="B43">
         <v>2</v>
       </c>
-      <c r="C43" t="s">
-        <v>88</v>
+      <c r="C43" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D43">
         <v>24</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -2130,13 +2137,13 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2147,13 +2154,13 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="54" x14ac:dyDescent="0.3">
@@ -2164,13 +2171,13 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
@@ -2181,13 +2188,13 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="D47">
         <v>4</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2198,13 +2205,13 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -2215,13 +2222,13 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -2232,13 +2239,13 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2249,13 +2256,13 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D51">
         <v>4</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2266,13 +2273,13 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2283,13 +2290,13 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D53">
         <v>6</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2300,13 +2307,13 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D54">
         <v>7</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2317,13 +2324,13 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D55">
         <v>8</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2334,13 +2341,13 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D56">
         <v>9</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2351,13 +2358,13 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D57">
         <v>10</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2368,13 +2375,13 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D58">
         <v>11</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2385,13 +2392,13 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D59">
         <v>12</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2402,13 +2409,13 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D60">
         <v>13</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2419,13 +2426,13 @@
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D61">
         <v>14</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2436,13 +2443,13 @@
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D62">
         <v>15</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2453,13 +2460,13 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D63">
         <v>16</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2470,13 +2477,13 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D64">
         <v>17</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2487,13 +2494,13 @@
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D65">
         <v>18</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2504,13 +2511,13 @@
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D66">
         <v>19</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2521,13 +2528,13 @@
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D67">
         <v>20</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2538,13 +2545,13 @@
         <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D68">
         <v>21</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2555,13 +2562,13 @@
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D69">
         <v>22</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2572,13 +2579,13 @@
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D70">
         <v>23</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2589,13 +2596,13 @@
         <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D71">
         <v>24</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2606,13 +2613,13 @@
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D72">
         <v>25</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2623,13 +2630,13 @@
         <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D73">
         <v>26</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2640,13 +2647,13 @@
         <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D74">
         <v>27</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2657,13 +2664,13 @@
         <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D75">
         <v>28</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2674,13 +2681,13 @@
         <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D76">
         <v>29</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2691,13 +2698,13 @@
         <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D77">
         <v>30</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2708,13 +2715,13 @@
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D78">
         <v>31</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2725,13 +2732,13 @@
         <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D79">
         <v>32</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2742,13 +2749,13 @@
         <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D80">
         <v>33</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -2759,13 +2766,13 @@
         <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D81">
         <v>34</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2776,13 +2783,13 @@
         <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D82">
         <v>35</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -2793,13 +2800,13 @@
         <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D83">
         <v>36</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2810,13 +2817,13 @@
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D84">
         <v>37</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2827,13 +2834,13 @@
         <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D85">
         <v>38</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2844,13 +2851,13 @@
         <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D86">
         <v>39</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2861,18 +2868,18 @@
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D87">
         <v>40</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/CHATGAME/Assets/Data/dialogue.xlsx
+++ b/CHATGAME/Assets/Data/dialogue.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\one\Desktop\미연시\AI-CHATBOT-GAME\CHATGAME\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99ccd577c8ac53ff/문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2A7476-4447-490E-8D37-4FDE8C3A809C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="760" documentId="8_{9C52D8B5-26B1-41EA-82C5-0CD20B54A85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3FD1522-3EC3-49C0-B954-E6247C575E7D}"/>
   <bookViews>
-    <workbookView xWindow="31695" yWindow="720" windowWidth="22245" windowHeight="13245" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="131">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -670,9 +670,6 @@
     </r>
   </si>
   <si>
-    <t>희망과 인내의 힘을 보여주는 감동적인 이야기.  자유를 향한 갈망.</t>
-  </si>
-  <si>
     <t>마피아 세계 속에서도 인간적인 면모들이 돋보이는 영원한 고전. #대부</t>
   </si>
   <si>
@@ -964,13 +961,200 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Event</t>
+  </si>
+  <si>
     <t>Poke</t>
   </si>
   <si>
+    <t>Twt</t>
+  </si>
+  <si>
+    <t>"'일 포스티노'라는 영화 알아? 뭐야, 그 표정... 역시 모르는구나. 1994년에 나온 이탈리아 영화야. 파블로 네루다와 시골 우편배달부의 우정을 다룬 건데... 진짜 아름다워. 마시모 트로이시가 연기한 마리오가 어떻게 시를 배우고 사랑을 깨닫는지... 그 지중해의 풍경이랑 음악은 정말 넋을 잃게 만들어. 그리고 은유의 힘에 대해서..."
+리코는 손으로 공중에 시구를 쓰는 듯한 동작을 하며 열정적으로 영화 이야기를 계속했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"다, 다시 한 번 말하지만! 저번에 같이 영화 봤던 거, 배우들의 연기가 좋았던 거지, 네가 옆에 있어서 좋았다거나 그런 게 아니라고!"
+리코의 얼굴이 붉어지면서도, 그녀는 고개를 돌려 눈을 마주치지 않으려 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"다음엔... '라라랜드' 어때? 2016년 작품이야. 난 어릴 때 영화관에서 봤었어. 그냥... 음악도 좋고, 영상미도 뛰어나서... 꼭 같이 보고 싶ㅡ 아니, 그냥 네 영화 지식을 넓히라고 하는 거야, 바보야!"
+리코는 볼이 붉어진 채로 창밖을 바라보며 말했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"진짜로 안 나가네, 이런 고리타분한 동아리가 뭐가 좋다고…"
+리코는 잠시 말을 멈추고 얼굴을 붉히며 작은 목소리로 덧붙였다.
+"그렇다고 나가라는 것 까지는 아냐, 굳이 네가 좋다면… 조금은 더 있어줘도 되니까…"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"요즘 대작이라고 나오는 것들은 정말... 섬세하지가 못해. 죄다 번쩍거리는 폭발이랑 CG만 넣고, 섬세한 감정의 흐름이나 인물의 내적 갈등은 생각도 안 하는거지..."
+리코는 한숨을 쉬며 다른 장르의 영화 팬들에 대한 불만을 토로한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"헤비 메탈? 으... 그게 무슨 음악이야? 귀청 터질 것 같은 소리나 내고... 우아함이라곤 찾아볼 수 없는 쓰레기잖아."
+리코는 마치 공연장에 있기라도 한 것 처럼 고개를 반대로 돌린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"어릴 때 '그리스'라는 영화를 봤는데... 그때는 몰랐지만 지금 보면 좀 유치하긴 해. 그래도 노래는 괜찮았어."
+리코는 모처럼 풀어진 표정으로 추억에 잠긴 이야기를 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"DVD는 연도순으로 배치하라고 말했지? 몇 번을 말해야 알아들어. '쉰들러 리스트'는 1993년, '펄프 픽션'은 1994년이라고, 바보야. "
+리코는 다리를 꼬곤 당신을 한심하단 눈빛으로 내려다본다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"혹시나 네 성적이 떨어지더라도 '영화 보느라 공부 못했어요' 같은 소리는 절대 하지 마. 으휴..."
+리코는 짜증난 듯 한숨을 내쉬었지만, 그녀의 목소리에는 미묘한 관심이 들어있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희망과 인내의 힘을 보여주는 감동적인 이야기.  자유를 향한 갈망.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"'피아니스트의 전설' 같은 영화를 보면 악기 하나쯤은 평생 가져가서 나쁠 것 없을 것 같기도 하고… 다음에는 부실에 바이올린이나 가져올까."
+바이올린 이야기를 할 때만큼은 리코의 말투가 부드러웠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"저번에, 어렸을 때 바이올린 배웠던 이야기 했었지? 그래도 작은 대회에서 상 받을 정도는 했었어. 오랜만에 집 가서 바이올린을 잡아봤는데 감은 남아있더라고."
+리코는 턱을 괴고 미소지으며 이야기를 이어나간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"보고싶은 영화 있어? …구, 궁금해서 물어보는 건 아냐! 그냥 네 취향이 얼마나 형편없는지 확인하고 싶을 뿐이라고!"
+당신을 바라보던 리코는 얼굴을 붉히더니 고개를 확 내린다. 금방 무관심한 척 손톱을 들여다보지만, 은근히 당신의 대답을 기다리고 있는 듯 하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"요즘 듣는 음악 있어? …너무 똑같은 음악만 듣나 해서, 가끔은… 네 저급한 취향에도 맞춰주려고."
+리코는 은근히 당신의 대답을 기다리면서도 무심한 척 창밖을 바라본다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6, 60점… 말도 안돼! 채점을 잘못한 거 아니야? 이런 게 어떻게 내 점수냐고! 으으…! 이건 아니야, 따지러 가야겠어!"
+시험 점수를 확인하곤 한껏 성을 낸 리코는, 당신과 눈을 마주치더니 뺨을 붉힌다.
+"바, 방금 건 못 들은 걸로 해! 전부 가짜 점수야! 선생이 이상한 거라고!"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"'향수' 라는 책이야. 영화부터 봤는데, 원작이 궁금해지더라구."
+리코는 이젠 당신의 적당한 관심이 익숙한 듯 고개를 돌리지도 않고 대답한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"어떤 디저트 좋아해? 너무 단 건 또 싫으려나… 그, 그냥 궁금할 수도 있지! 뭐! 그런 식으로 쳐다보지 말란 말이야, 기분 나빠..."
+리코의 뺨이 붉게 물들었고, 당황한 듯 손으로 얼굴을 가리려 했지만 이미 들킨 뒤였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그냥 넷플릭스 신작 확인하는 거야. 적을 알고 나를 알아야지, 가끔은 쓰레기들 사이에서도 보석이 하나 껴있으니까."
+리코의 계정엔 거의 모든 영화들에 끝까지 봤다는 표시가 되어있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"…뭘 그렇게 뿌듯해 하는 거야! 너 같은 멍청이가 들어와서 좋다고 한 적 없으니까, 우쭐대지 마!"
+당신이 무슨 말을 하기도 전에 리코가 먼저 소리를 지른다. 목소리에는 당혹감과 부끄러움이 뒤섞여 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"...뭘 그렇게 멍하니 있는 거야! 정말... 너같은 바보랑 같은 동아리라니. 할 게 없으면 부실 청소라도 하던가!"
+당신과 눈이 마주치자 리코의 뺨이 확 달아오르더니, 갑자기 날카로워진 말투로 쏘아붙힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"..."
+리코는 갑자기 얼굴을 붉히며 고개를 돌린다. 방 안에는 묘한 긴장감이 감돈다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"읏챠… 으, 영화를 너무 오래 봤나..."
+리코는 팔을 위로 쭉 뻗으며 기지개를 켰다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"벌써 시간이 이렇게 됐네… 바보들, 뭐가 그리 신나서 저렇게 뛰어나가는 거야."
+리코는 교문을 향해 우르르 몰려나가는 학생들의 모습을 가만히 바라보고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"…할 일이 그렇게 없어? 나 구경할 시간에 책 한 글자라도 더 읽던가."
+리코는 당신을 힐끗 쳐다보곤 말한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"…"
+리코는 뺨을 부풀리며 IKA를 뚫어지게 쳐다봤다. 마치 독설을 쏟아낼 준비를 하는 듯한 표정이었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"할 일 없으면, 저번에 그거... 그, 그거! 그냥 한 번 더 해볼래? 그러니까 말이야, 쓰다듬어준다거나… 으응?"
+꽤나 오랜 시간 고민한 끝에 말을 꺼낸 리코는 얼굴을 붉히며 머뭇머뭇거리면서도 내심 기대하듯 당신에게 팔을 벌린다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"응… 으읏."
+리코는 당신에게 쓰다듬어지는 상황이 부끄러운 듯 눈을 질끈 감으면서도, 그만두라는 말은 차마 하지 못한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"다시 한 번 말하지만 딱히 네가 아니라 누구였어도 상관 없었던- 읏…"
+리코의 날 선 말은 당신의 손길에 멈춰버린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"읏… 나, 나쁘진 않네…"
+리코의 몸이 앞쪽으로 기울며 당신의 손길을 기다린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"진짜, 기분 이상하다니까..."
+당신의 부드러운 손길에 이미 긴장이 풀렸는지 리코의 눈이 반쯤 감겼다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"이상한 생각 하면 죽여버릴 거야..."
+리코의 말은 여전히 날카롭지만 당신의 손길을 피하지는 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"으응, 조금만 더…"
+당신의 손길을 따라 리코의 머리가 가볍게 좌우로 흔들린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"머리 헝클어트리지 말고, 살살… 으응…"
+리코는 당신의 손길이 썩 싫지는 않은 듯 하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Event</t>
-  </si>
-  <si>
-    <t>Twitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬슬 집에 갈 시간, 리코가 당신 앞에 멈춰 선다. 금방이라도 독설을 내뱉을 것 같은 분위기는 여전했지만, 이상하리만치 뜨뜻한 긴장감이 당신과 리코 사이에 흐른다. 
+그저 주머니 속의 무언가를 만지작거리며 눈도 맞추지 못하던 리코는, 곧이어 큰 결심을 한 듯 깊은 숨을 들이쉬더니, 내던지듯 그 무언가를 당신에게 건넨다.
+"자, 이거! 제대로 챙겨두라고."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"영화표야, 이번에 새로 나온 로맨스 영화 있잖아. '사랑과 정열'인지 뭔지. 아무튼, 정 보고싶으면 봐도 괜찮다구?… 나랑 같이." 
+리코는 어떻게든 당신과 눈을 마주치지 않으려고 애를 쓴다.
+"그리고 오해하지 마! 이건 데, 데이트 같은 게 아니야! 그러니까, 네가 정 바란다면 데이트…여도 괜찮긴 하지만, 그, 그런 의도로 준 표는 아니니까! 그냥, 평범한 동아리 활동이라고!"
+숨이 차도록 쉬지 않고 말을 쏟아내곤, 그대로 홱 돌아서버린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1008,18 +1192,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444715716"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1036,7 +1214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1046,8 +1224,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1064,6 +1245,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1383,22 +1568,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB6AF96-1BBB-40CA-B5E6-6C0144248FD4}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
-    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="223.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.9140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="223.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1415,109 +1600,109 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>92</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>92</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>92</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>92</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>92</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>92</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1525,16 +1710,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1542,135 +1727,135 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>92</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>92</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>92</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
         <v>92</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>92</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>92</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>92</v>
       </c>
       <c r="D16">
         <v>7</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="48" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1678,16 +1863,16 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="48" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1695,16 +1880,16 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1712,424 +1897,424 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="48" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>92</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>92</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>92</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s">
         <v>92</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s">
         <v>92</v>
       </c>
       <c r="D24">
         <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s">
         <v>92</v>
       </c>
       <c r="D25">
         <v>6</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s">
         <v>92</v>
       </c>
       <c r="D26">
         <v>7</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" t="s">
         <v>92</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" t="s">
         <v>92</v>
       </c>
       <c r="D28">
         <v>9</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" t="s">
         <v>92</v>
       </c>
       <c r="D29">
         <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" t="s">
         <v>92</v>
       </c>
       <c r="D30">
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" t="s">
         <v>92</v>
       </c>
       <c r="D31">
         <v>12</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" t="s">
         <v>92</v>
       </c>
       <c r="D32">
         <v>13</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" t="s">
         <v>92</v>
       </c>
       <c r="D33">
         <v>14</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" t="s">
         <v>92</v>
       </c>
       <c r="D34">
         <v>15</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" t="s">
         <v>92</v>
       </c>
       <c r="D35">
         <v>16</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" t="s">
         <v>92</v>
       </c>
       <c r="D36">
         <v>17</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" t="s">
         <v>92</v>
       </c>
       <c r="D37">
         <v>18</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" t="s">
         <v>92</v>
       </c>
       <c r="D38">
         <v>19</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" t="s">
         <v>92</v>
       </c>
       <c r="D39">
         <v>20</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" t="s">
         <v>92</v>
       </c>
       <c r="D40">
         <v>21</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" t="s">
         <v>92</v>
       </c>
       <c r="D41">
         <v>22</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" t="s">
         <v>92</v>
       </c>
       <c r="D42">
         <v>23</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" t="s">
         <v>92</v>
       </c>
       <c r="D43">
         <v>24</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2137,16 +2322,16 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2154,16 +2339,16 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="54" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="64" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2171,16 +2356,16 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="48" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2188,16 +2373,16 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D47">
         <v>4</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2205,7 +2390,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2214,7 +2399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2222,7 +2407,7 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -2231,7 +2416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2239,7 +2424,7 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -2248,7 +2433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2256,7 +2441,7 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -2265,7 +2450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2273,7 +2458,7 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D52">
         <v>5</v>
@@ -2282,7 +2467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2290,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D53">
         <v>6</v>
@@ -2299,7 +2484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2307,7 +2492,7 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D54">
         <v>7</v>
@@ -2316,7 +2501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2324,7 +2509,7 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D55">
         <v>8</v>
@@ -2333,7 +2518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2341,7 +2526,7 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D56">
         <v>9</v>
@@ -2350,7 +2535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2358,7 +2543,7 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D57">
         <v>10</v>
@@ -2367,7 +2552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2375,7 +2560,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D58">
         <v>11</v>
@@ -2384,7 +2569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2392,7 +2577,7 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D59">
         <v>12</v>
@@ -2401,7 +2586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2409,7 +2594,7 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D60">
         <v>13</v>
@@ -2418,7 +2603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2426,7 +2611,7 @@
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D61">
         <v>14</v>
@@ -2435,7 +2620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2443,7 +2628,7 @@
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D62">
         <v>15</v>
@@ -2452,7 +2637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2460,7 +2645,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D63">
         <v>16</v>
@@ -2469,7 +2654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2477,7 +2662,7 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D64">
         <v>17</v>
@@ -2486,7 +2671,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2494,7 +2679,7 @@
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D65">
         <v>18</v>
@@ -2503,7 +2688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2511,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D66">
         <v>19</v>
@@ -2520,7 +2705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2528,7 +2713,7 @@
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D67">
         <v>20</v>
@@ -2537,7 +2722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2545,16 +2730,16 @@
         <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D68">
         <v>21</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2562,16 +2747,16 @@
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D69">
         <v>22</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2579,16 +2764,16 @@
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D70">
         <v>23</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2596,16 +2781,16 @@
         <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D71">
         <v>24</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2613,16 +2798,16 @@
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D72">
         <v>25</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2630,16 +2815,16 @@
         <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D73">
         <v>26</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2647,16 +2832,16 @@
         <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D74">
         <v>27</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2664,16 +2849,16 @@
         <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D75">
         <v>28</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2681,16 +2866,16 @@
         <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D76">
         <v>29</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2698,16 +2883,16 @@
         <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D77">
         <v>30</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2715,16 +2900,16 @@
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D78">
         <v>31</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2732,16 +2917,16 @@
         <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D79">
         <v>32</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2749,16 +2934,16 @@
         <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D80">
         <v>33</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2766,16 +2951,16 @@
         <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D81">
         <v>34</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2783,16 +2968,16 @@
         <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D82">
         <v>35</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2800,16 +2985,16 @@
         <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D83">
         <v>36</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2817,16 +3002,16 @@
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D84">
         <v>37</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2834,16 +3019,16 @@
         <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D85">
         <v>38</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2851,16 +3036,16 @@
         <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D86">
         <v>39</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2868,17 +3053,595 @@
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D87">
         <v>40</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>92</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>92</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>92</v>
+      </c>
+      <c r="D93">
+        <v>6</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94">
+        <v>7</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95">
+        <v>8</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>92</v>
+      </c>
+      <c r="D96">
+        <v>9</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>92</v>
+      </c>
+      <c r="D97">
+        <v>10</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>92</v>
+      </c>
+      <c r="D98">
+        <v>11</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>92</v>
+      </c>
+      <c r="D99">
+        <v>12</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>92</v>
+      </c>
+      <c r="D100">
+        <v>13</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>92</v>
+      </c>
+      <c r="D101">
+        <v>14</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>92</v>
+      </c>
+      <c r="D102">
+        <v>15</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>92</v>
+      </c>
+      <c r="D103">
+        <v>16</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>92</v>
+      </c>
+      <c r="D104">
+        <v>17</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>92</v>
+      </c>
+      <c r="D105">
+        <v>18</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>92</v>
+      </c>
+      <c r="D106">
+        <v>19</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>92</v>
+      </c>
+      <c r="D107">
+        <v>20</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>92</v>
+      </c>
+      <c r="D108">
+        <v>21</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>92</v>
+      </c>
+      <c r="D109">
+        <v>22</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>92</v>
+      </c>
+      <c r="D110">
+        <v>23</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>92</v>
+      </c>
+      <c r="D111">
+        <v>24</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>92</v>
+      </c>
+      <c r="D112">
+        <v>25</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>107</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>107</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>107</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>107</v>
+      </c>
+      <c r="D116">
+        <v>4</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>107</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>107</v>
+      </c>
+      <c r="D118">
+        <v>6</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>107</v>
+      </c>
+      <c r="D119">
+        <v>7</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>128</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="68" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>128</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
         <v>5</v>
       </c>
     </row>

--- a/CHATGAME/Assets/Data/dialogue.xlsx
+++ b/CHATGAME/Assets/Data/dialogue.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99ccd577c8ac53ff/문서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\one\Desktop\미연시\AI-CHATBOT-GAME\CHATGAME\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="760" documentId="8_{9C52D8B5-26B1-41EA-82C5-0CD20B54A85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3FD1522-3EC3-49C0-B954-E6247C575E7D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76466677-7D0C-4627-8C7C-2FDA0176C43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
+    <workbookView xWindow="31695" yWindow="720" windowWidth="22245" windowHeight="13245" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1245,10 +1245,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1570,20 +1566,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB6AF96-1BBB-40CA-B5E6-6C0144248FD4}">
   <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.9140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="223.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="223.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1600,7 +1596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1617,7 +1613,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1634,7 +1630,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1651,7 +1647,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1668,7 +1664,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1685,7 +1681,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1702,7 +1698,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1719,7 +1715,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1736,7 +1732,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1753,7 +1749,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1770,7 +1766,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1787,7 +1783,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1804,7 +1800,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1821,7 +1817,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1838,7 +1834,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1855,7 +1851,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="48" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1872,7 +1868,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="48" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1889,7 +1885,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1906,7 +1902,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="48" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1923,7 +1919,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1940,7 +1936,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1957,7 +1953,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1974,7 +1970,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1991,7 +1987,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2008,7 +2004,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2025,7 +2021,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2042,7 +2038,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2059,7 +2055,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2076,7 +2072,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2093,7 +2089,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2110,7 +2106,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2127,7 +2123,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2144,7 +2140,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2161,7 +2157,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2178,7 +2174,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2195,7 +2191,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2212,7 +2208,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2229,7 +2225,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2246,7 +2242,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2263,7 +2259,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2280,7 +2276,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2297,7 +2293,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2314,7 +2310,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2331,7 +2327,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2348,7 +2344,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="64" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2365,7 +2361,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="48" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2382,7 +2378,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2399,7 +2395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2416,7 +2412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2433,7 +2429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2450,7 +2446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2467,7 +2463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2484,7 +2480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2501,7 +2497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2518,7 +2514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2535,7 +2531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2552,7 +2548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2569,7 +2565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2586,7 +2582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2603,7 +2599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2620,7 +2616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2637,7 +2633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2654,7 +2650,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2671,7 +2667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2688,7 +2684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2705,7 +2701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2722,7 +2718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2739,7 +2735,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2756,7 +2752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2773,7 +2769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2790,7 +2786,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2807,7 +2803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2824,7 +2820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2841,7 +2837,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2858,7 +2854,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2875,7 +2871,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2892,7 +2888,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2909,7 +2905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2926,7 +2922,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2943,7 +2939,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2960,7 +2956,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2977,7 +2973,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2994,7 +2990,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3011,7 +3007,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3028,7 +3024,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3045,7 +3041,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3062,7 +3058,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3079,7 +3075,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3096,7 +3092,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3113,7 +3109,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3130,7 +3126,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3147,7 +3143,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3164,7 +3160,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3181,7 +3177,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3198,7 +3194,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3215,7 +3211,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3232,7 +3228,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3249,7 +3245,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3266,7 +3262,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3283,7 +3279,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3300,7 +3296,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3317,7 +3313,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3334,7 +3330,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3351,7 +3347,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3368,7 +3364,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3385,7 +3381,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3402,7 +3398,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3419,7 +3415,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3436,7 +3432,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3453,7 +3449,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3470,7 +3466,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3487,7 +3483,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3504,7 +3500,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3521,7 +3517,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3538,7 +3534,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3555,7 +3551,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3572,7 +3568,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3589,7 +3585,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3606,7 +3602,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3623,7 +3619,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="68" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3640,7 +3636,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>5</v>
       </c>

--- a/CHATGAME/Assets/Data/dialogue.xlsx
+++ b/CHATGAME/Assets/Data/dialogue.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\one\Desktop\미연시\AI-CHATBOT-GAME\CHATGAME\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99ccd577c8ac53ff/문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76466677-7D0C-4627-8C7C-2FDA0176C43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1346" documentId="8_{9C52D8B5-26B1-41EA-82C5-0CD20B54A85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC06C9E2-AC13-42A2-90D3-50921723B809}"/>
   <bookViews>
-    <workbookView xWindow="31695" yWindow="720" windowWidth="22245" windowHeight="13245" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
+    <sheet name="Event" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="210">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -975,11 +976,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"다, 다시 한 번 말하지만! 저번에 같이 영화 봤던 거, 배우들의 연기가 좋았던 거지, 네가 옆에 있어서 좋았다거나 그런 게 아니라고!"
-리코의 얼굴이 붉어지면서도, 그녀는 고개를 돌려 눈을 마주치지 않으려 했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"다음엔... '라라랜드' 어때? 2016년 작품이야. 난 어릴 때 영화관에서 봤었어. 그냥... 음악도 좋고, 영상미도 뛰어나서... 꼭 같이 보고 싶ㅡ 아니, 그냥 네 영화 지식을 넓히라고 하는 거야, 바보야!"
 리코는 볼이 붉어진 채로 창밖을 바라보며 말했다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1001,11 +997,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"어릴 때 '그리스'라는 영화를 봤는데... 그때는 몰랐지만 지금 보면 좀 유치하긴 해. 그래도 노래는 괜찮았어."
-리코는 모처럼 풀어진 표정으로 추억에 잠긴 이야기를 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"DVD는 연도순으로 배치하라고 말했지? 몇 번을 말해야 알아들어. '쉰들러 리스트'는 1993년, '펄프 픽션'은 1994년이라고, 바보야. "
 리코는 다리를 꼬곤 당신을 한심하단 눈빛으로 내려다본다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1085,18 +1076,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"벌써 시간이 이렇게 됐네… 바보들, 뭐가 그리 신나서 저렇게 뛰어나가는 거야."
-리코는 교문을 향해 우르르 몰려나가는 학생들의 모습을 가만히 바라보고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"…할 일이 그렇게 없어? 나 구경할 시간에 책 한 글자라도 더 읽던가."
 리코는 당신을 힐끗 쳐다보곤 말한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"…"
-리코는 뺨을 부풀리며 IKA를 뚫어지게 쳐다봤다. 마치 독설을 쏟아낼 준비를 하는 듯한 표정이었다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1154,6 +1135,402 @@
 리코는 어떻게든 당신과 눈을 마주치지 않으려고 애를 쓴다.
 "그리고 오해하지 마! 이건 데, 데이트 같은 게 아니야! 그러니까, 네가 정 바란다면 데이트…여도 괜찮긴 하지만, 그, 그런 의도로 준 표는 아니니까! 그냥, 평범한 동아리 활동이라고!"
 숨이 차도록 쉬지 않고 말을 쏟아내곤, 그대로 홱 돌아서버린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"어제 '지옥의 묵시록'을 다시 봤거든. 베트남 전쟁을 배경으로 한 영화인데, 확실히 요즘의 멍청한 액션영화들보다 훨씬 조용하면서도 긴장감에 숨도 쉬기 힘들게 만들더라. 그리고 그 과정에서 드러나는 인간의 광기와 전쟁의 부조리함이 어떻게 표현되는지, 그 유명한 대사 '네이팜 냄새. 난 그 냄새가 좋아.' 이 대사가 얼마나 많은..."
+리코의 눈빛이 열정으로 반짝인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"가끔은 같이 영화관 가는 것도 나쁘지 않을 지도… 호, 혼잣말이야! 신경쓰지 마!"
+리코의 얼굴이 붉어지면서도, 그녀는 고개를 돌려 눈을 마주치지 않으려 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"다, 다시 한 번 말하지만! 저번에 '비포 선라이즈' 같이 봤던 거, 배우들의 연기가 좋았던 거지, 네가 옆에 있어서 좋았다거나 그런 게 아니라고!"
+리코의 얼굴이 붉어지면서, 고개를 돌려 어떻게든 눈을 마주치지 않으려 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"'어바웃 타임'이라는 영화 알아? 2013년에 나온 건데... 괜찮다면 같이 볼래? 시, 싫으면 말고! 나 혼자 봐도 상관 없으니까."
+"그, 그냥 리차드 커티스 감독의 로맨틱한 각본이 어떤지 보여주고 싶어서 그래. 우리가 함께 본다고 해서... 특별한 의미 같은 건 전혀 없다고!"
+귀까지 빨개진 리코는 곁눈질로 당신의 반응을 살핀다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"확실히 넓은 부실에 혼자 있으면, 남는 공간이 좀 쓸쓸한 느낌이긴 했어… 고, 고맙단 말은 절대 아냐! 없는 것 보단 낫다는 거지!"
+리코는 황급히 고개를 돌려 붉어진 얼굴을 감춘다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"이런 것도 영화라고 만든 거야? 내가 만들어도 이것보단 잘 만들겠다. 개연성, 연기, 음악, 뭐 하나 쓸만한 게 없어."
+크레딧이 올라가고 나서야 리코는 영화에 대한 불만을 터트린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"쓰레기 영화라는 걸 알면서도 봐야만 한다는 것만큼 짜증나는 게 없어. 관객 수만 많으면 장땡이냐고."
+스크린에는 상업적으로 손 꼽히게 성공한 영화가 틀어져 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"'시네마 천국'이라는 영화 알아? 모르면 여기 있으면 안 되지. 처음엔 그저 예쁜 영화였는데, 정말 영화를 좋아하게 되고 나서 다시 보니 훨씬 더 아름다운 얘기더라."
+리코는 모처럼 풀어진 표정으로 추억에 잠긴 듯 이야기를 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"어릴 때 '그리스'라는 영화를 봤는데... 그때는 몰랐지만 지금 보면 좀 유치하긴 해. 그래도 노래는 괜찮았어."
+리코는 모처럼 풀어진 표정으로 추억에 잠긴 듯 이야기를 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"왜 이게 명작인지 모르겠다고? 하아… 이런 애도 부원이라고 데리고 있어야 하는 내가 참 불쌍하다."
+리코는 다리를 꼬곤 당신을 한심하단 눈빛으로 내려다본다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"공부는 제대로 하고 있는 거 맞지? 성적 떨어지고 내 탓 하지 마, 괜히 나가버리면 나만 곤란하다구."
+리코는 핀잔을 주듯 이야기 하지만, 그녀의 목소리에는 미묘한 관심이 들어있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"악기라는 건 참 미묘한 것 같아. 대부분의 악기들은 정말 단순하게 생겼는데도 그 안에는 미세한 떨림에 따라 바뀌는 심오한 세계가 펼쳐지고..."
+리코는 턱을 괴고 당신을 바라보며 바이올린 이야기를 계속 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"알고 있는 바이올린 곡 있어? 너무 어렵지만 않으면, 다음에 연습해서 한 번 쯤은 들려줄게."
+바이올린 이야기를 할 때만큼은 리코의 말투가 부드러웠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"이, 이번에 픽사에서 신작 애니메이션 개봉하던데… 할 일 없으면 같이 보러 갈래? 무, 물론 보기 싫은데 보라는 건 아냐! 나도 일정 빡빡하거든!"
+리코는 한참을 머뭇거린 끝에 주먹을 꼭 쥐곤 용기 내어 당신에게 말하더니, 대수로운 일 아니라는 듯 고개를 홱 돌린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"하아!? 데, 데이트 신청같은 거 아냐! 그냥 그 집 딸기 케이크가 맛있어서… 아, 됐어! 가기 싫으면 관둬!"
+리코는 당신에게 방과후에 카페를 가자고 했다가, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"동아리 지원금 신청서 잊지 말고 제출해야 한다? 뭐… 알아서 잘 하겠지만."
+리코는 무심한 듯이 말하지만, 그 안에는 보기 드문 신뢰가 담겨있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"재수 없어! 으… 유행 좀 못 따라가면 어떻냐구, 최신 가요따위 몰라도 사는 데 전혀 지장 없잖아! 유행은 금방 사그라드는 거고…"
+리코는 당신에게 반 친구들과 있었던 일을 말하며, 여전히 분이 덜 풀린 듯 씩씩거린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"왜? 또 무슨 책 읽는지 물어보게? '예루살렘의 아이히만' 이라는 책이야."
+당신이 말을 걸기도 전에 리코가 먼저 대답한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"..."
+리코는 휴대폰에 집중하느라 당신이 쳐다보고 있는 줄도 모른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"…뭐! 왜! 가끔은 뚜껑이 꽉 잠겨있을 수도 있는 거지!"
+리코는 500mL 생수병을 들고 한참을 끙끙대다가, 마지 못해 당신에게 뚜껑을 열어달라고 내밀며 소리친다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"…그으, 소리 지르려고 했던 건 아냐. 그냥… 홧김에 그런 거니까, 잊던지 말던지..."
+리코는 차마 미안하다는 말은 못하고 빙 둘러 말한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"으… 뻐근해."
+리코는 팔을 위로 쭉 뻗으며 기지개를 켰다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"벌써 시간이 이렇게 됐네… 바보들, 뭐가 저렇게 신나서 저렇게 뛰어나가는 거야."
+리코는 교문을 향해 우르르 몰려나가는 학생들의 모습을 가만히 바라보고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"새삼 시간이 꽤나 지났네… 네가 온지 말야. 그 사이 풍경도 많이 바뀌었고."
+리코는 문득 바깥을 바라보곤 중얼거렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"무슨 책인지 궁금해? 다 읽고 빌려줄까?"
+리코는 책에서 시선을 떼지 않은 채로 말한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"…"
+리코는 뺨을 부풀리며 당신을 뚫어지게 쳐다본다. 마치 독설을 쏟아낼 준비를 하는 듯한 표정이었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"으… 안 쓰다듬어준지 꽤 오래 되었다고 생각하지 않아? 그러니까… 정 네가 원한다면, 좀 더 쓰다듬어줘도 괜찮은데...?"
+꽤나 오랜 시간 고민한 끝에 말을 꺼낸 리코는 얼굴을 붉히며 머뭇머뭇거리면서도 내심 기대하듯 당신에게 팔을 벌린다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"…"
+리코는 불만 가득한 표정으로 당신을 쳐다보지만 입을 떼지는 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신이 동아리 문을 여니 리코가 팔짱을 낀 채로 서있었다. 무언가 복잡한 감정이 얽힌 듯한 표정으로 당신을 바라보다가, 당신이 입을 열기도 전에 성큼 당신쪽으로 다가간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"왜 이렇게 눈치가 없는 거야!
+언제나의 화난 목소리보단, 조금 더 머뭇거리는 느낌이 담겨있다.
+"지금쯤 되면 말이야! 뭐라도 했어야 할 거 아냐! 그러니까, 좋아한다고 하던가, 사귀자고 한다던가…"
+리코도 이 순간만큼은 평소의 날카로운 모습을 유지할 수가 없었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리코의 말이 여전히 공기중을 맴도는 동안, 당신은 등 뒤에 숨기고 있었던 꽃다발을 꺼냈다. 완벽한 순간만을 기다리고 있던 그 꽃다발에 리코의 눈동자가 커지며, 잠시 시간이 멈춘 듯 말을 잃는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리코는 당신이 건넨 꽃다발에 손을 뻗는다. 잠시동안 당신과 손을 잡은 채 손가락을 꼼지락거리며 간지러운 온기를 느낀다.
+"…진짜, 바보 맞다니까."
+리코는 악의라곤 전혀 찾아볼 수 없는, 지금껏 말 못한 애정들이 담긴 부드러운 말투로 당신에게 말한다. 리코의 입꼬리가 살짝 올라가며 나긋한 목소리로 말한다.
+"…고마워."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>situation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"지각 할 줄 알았는데 의외로 제 시간에 나왔네. 그럼 가볼까?"
+리코는 편안해보이는 분홍색 민소매를 입고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서관 안은 조용하고 차분했다. 가끔가다가 사람들의 책장 넘기는 소리만이 들렸다. 리코는 소설들이 꽂혀있는 책꽂이를 찬찬히 살펴보다가 책 한 권을 꺼낸다.
+"피아니스트, 이거 책이 원작이었구나. 전혀 몰랐어. 이거 빌려가야겠다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리코는 선 자리에서 책을 몇 장 넘겨보더니 같은 책을 한 권 더 꺼낸다.
+"책 안골랐으면, 이거 같이 빌려서 보자. 그냥… 이야기 할 거리도 생기고, 나쁠 건 없잖아. "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"뭐! 아무렇지도 않거든? 얼른 가기나 해! 예약 시간 다되어가니까…"
+리코는 괜히 날카로운 목소리로 짜증을 내곤 당신보다 앞서서 걸어간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"와, 왔어? 여기서 별로 멀지 않으니까, 그냥 식당에서 봤어도 됐는데..."
+리코는 무언가 어색한 듯 말을 살짝 더듬는다. 살짝 붉어진 얼굴이 새하얀 옷과 대조된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"-… 어라, 벌써 다 먹었어? 아직 할 이야기가 많이 남았는데… 어쩔 수 없지, 근처에 아인슈페너 맛있는 카페 알아."
+식사시간은 끝났어도 리코는 아직 할 이야기가 많은 듯 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"중간까지만 해도 엄청난 명작이라고 생각했는데 결말은 좀 실망이었어. 명작이라기엔 조금 아쉬운? 그리고-"
+음식들은 그럭저럭 나쁘지 않은 편이었지만 리코는 음식보단 대화를 더 신경썼다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"687… 688… 여깄다. 이쪽 선반은 전부 영화 책이야. 어디보자, 이거랑 이거랑… 또 이것도."
+리코는 이미 서점에 여러 번 와본 듯 익숙하게 책을 찾는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"짐꾼 하나 있으니까 편하긴 하네. 혼자서 다닐 때보단 덜 심심하고…"
+리코는 당신을 쳐다보며 살짝 웃곤, 다시 목록에 있는 책들을 찾는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"서점에서 구매할 책 목록은 가져왔지? 동아리 예산 제출할 때 쓸 영수증 챙기는 거 잊지 말고."
+리코는 가벼운 파란색 원피스를 입고 당신을 기다리고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"늦어! 5분 일찍 다니라고 했지? 특히나 오늘은 내가 좋아하는 감독의 시사회라고 얘기했잖아."
+리코는 정시에 도착한 당신에게 핀잔을 준다. 검은색 정장이 불편한 듯 어깨를 자꾸 움직인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"이렇게 입으니까 어색하다고? …읏, 신경쓰지 마! 내 일은 내가 알아서 하니까."
+리코는 얼굴을 확 붉히곤, 몸을 돌려 영화관으로 향한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관의 불이 서서히 꺼지고, 리코와 당신은 나란히 앉아 스크린에 집중했다.
+캄캄한 영화관 안에서 스크린의 빛을 받은 리코의 눈빛이 반짝인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"…"
+리코는 시사회가 진행되는 내내 영화의 한 장면도 놓치지 않으려는 듯 영화에 집중한다. 2시간 남짓한 시간이 금방 지나간다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"모처럼 일찍 왔네. 표는 예매해놨으니 팝콘은 네가 사."
+리코는 편안한 검은색 후드티를 입고 당신을 기다리고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평일이라 그런지 영화관에는 사람이 거의 없었다. 캄캄하던 스크린이 밝아지며 영화가 시작한다.
+리코는 이따금 콜라를 홀짝이며 편하게 영화를 감상한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"명작이 아니라도, 가끔은 이런 영화도 나쁘지 않네."
+영화의 중반부, 화려한 액션이 끝나고 잠시 쉬어가는 시간에 리코가 중얼거린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"일찍 왔네? 저번에 너무 뭐라고 했나..."
+핑크색 블라우스 차림의 리코는 자신보다 먼저 온 당신을 보고 조금 놀란 듯 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"슬슬 갈까? 그때 봐뒀던 카페, 생각보다 멀더라고. 좀 걸어야 할 거야."
+리코는 당신을 슬쩍 쳐다보며 손짓한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"나쁘지 않네, 인테리어도 커피 냄새도."
+리코는 따뜻한 아메리카노와 몽블랑을 주문하곤, 잠시 주변을 둘러본다. 카페 내부는 아기자기한 소품들로 꾸며져 있었고, 큰 창문을 통해 들어오는 자연광이 따뜻한 분위기를 더했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"응, 이거 맛있다. 한 번 먹어볼래?"
+리코는 먹기 좋은 크기로 잘린 몽블랑 한 조각을 새 포크로 집어 당신에게 건네었다가, 잠시 후에서야 자신의 행동을 인지하곤 얼굴이 확 달아오른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그, 그냥 맛있어서 그런 거야! 아무 뜻도 없었거든? 이상한 생각 하지 말고 그냥 먹어!"
+쥐고 있던 포크를 도로 접시에 올려놓곤 당신에게 버럭 화를 낸다. 고개를 확 돌리곤, 그 뒤로 한참을 당신과 눈을 마주치지도 못한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"버리고 갈까 말까 100번은 고민했어. 그렇게 게을러서 밥은 차려먹겠어? 기대도 한 적 없지만."
+당신이 1분 늦게 약속장소에 도착하자 리코는 매섭게 당신을 쏘아붙힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아, 아까는 뭐… 그렇게까지 심하게 말하려고 했던 건 아니야."
+리코는 커피를 손에 쥐고 잠시 머뭇거리더니 힘들게 입을 연다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"혹시나 안 나올까봐 싶어서 홧김에 말이 좀 심하게 나와서… 그, 그렇다고 걱정했다거나, 보고싶었다던가 그런 건 아니니까 착각하지 마!"
+리코의 날카로운 말투 속에서도 미묘한 안도감이 섞여있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"표 시간은 제대로 확인한 거 맞지? 괜히 네 바보같은 실수로 하루를 망치긴 싫으니까 말이야."
+함께 오케스트라 공연을 보러 가기로 한 날, 리코는 언제나와 같이 당신에게 쌀쌀맞게 말한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"호, 혼자 가기에는 좀 궁상맞으니까 널 데려가는 것 뿐이야! 착각하지 말라구."
+리코의 분위기가 미묘하게 달라지곤, 고개를 홱 돌려 제 갈 길을 간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"나도 저렇게 연주해봤으면…"
+리코는 들릴 듯 말 듯한 목소리로 중얼거린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"…"
+기나긴 클래식 공연 내내 리코의 눈빛이 초롱초롱하다. 특히나 바이올린 솔리스트에게서 눈을 떼지 못하고 있다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1161,7 +1538,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1191,6 +1568,14 @@
       <name val="Segoe UI Emoji"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1214,7 +1599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1229,6 +1614,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1245,6 +1639,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1564,22 +1962,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB6AF96-1BBB-40CA-B5E6-6C0144248FD4}">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
-    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="223.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.9140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="223.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1596,7 +1994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1613,7 +2011,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1630,7 +2028,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1647,7 +2045,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1664,7 +2062,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1681,7 +2079,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1698,7 +2096,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1715,7 +2113,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1732,7 +2130,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1749,7 +2147,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1766,7 +2164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1783,7 +2181,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1800,7 +2198,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1817,7 +2215,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1834,7 +2232,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1851,7 +2249,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="48" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1868,7 +2266,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="48" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1885,7 +2283,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1902,7 +2300,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="48" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1919,7 +2317,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1936,7 +2334,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1953,7 +2351,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1970,7 +2368,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1987,7 +2385,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2004,7 +2402,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2021,7 +2419,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2038,7 +2436,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2055,7 +2453,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2072,7 +2470,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2089,7 +2487,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2106,7 +2504,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2123,7 +2521,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2140,7 +2538,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2157,7 +2555,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2174,7 +2572,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2191,7 +2589,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2208,7 +2606,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2225,7 +2623,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2242,7 +2640,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2259,7 +2657,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2276,7 +2674,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2293,7 +2691,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2310,7 +2708,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2327,7 +2725,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2344,7 +2742,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="54" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="64" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2361,7 +2759,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="48" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2378,7 +2776,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2395,7 +2793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2412,7 +2810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2429,7 +2827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2446,7 +2844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2463,7 +2861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2480,7 +2878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2497,7 +2895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2514,7 +2912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2531,7 +2929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2548,7 +2946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2565,7 +2963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2582,7 +2980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2599,7 +2997,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2616,7 +3014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2633,7 +3031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2650,7 +3048,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2667,7 +3065,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2684,7 +3082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2701,7 +3099,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2718,7 +3116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2732,10 +3130,10 @@
         <v>21</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2752,7 +3150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2769,7 +3167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2786,7 +3184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2803,7 +3201,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2820,7 +3218,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2837,7 +3235,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2854,7 +3252,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2871,7 +3269,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2888,7 +3286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2905,7 +3303,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2922,7 +3320,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2939,7 +3337,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2956,7 +3354,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2973,7 +3371,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2990,7 +3388,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3007,7 +3405,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3024,7 +3422,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3041,7 +3439,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3058,7 +3456,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="51" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3075,7 +3473,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3089,10 +3487,10 @@
         <v>2</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3106,10 +3504,10 @@
         <v>3</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="51" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3123,10 +3521,10 @@
         <v>4</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3140,10 +3538,10 @@
         <v>5</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3157,10 +3555,10 @@
         <v>6</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3174,10 +3572,10 @@
         <v>7</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3191,10 +3589,10 @@
         <v>8</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3208,10 +3606,10 @@
         <v>9</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3225,10 +3623,10 @@
         <v>10</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3242,10 +3640,10 @@
         <v>11</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3259,10 +3657,10 @@
         <v>12</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3276,10 +3674,10 @@
         <v>13</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3293,10 +3691,10 @@
         <v>14</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="51" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3310,10 +3708,10 @@
         <v>15</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3327,10 +3725,10 @@
         <v>16</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3344,10 +3742,10 @@
         <v>17</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3361,10 +3759,10 @@
         <v>18</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3378,10 +3776,10 @@
         <v>19</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3395,10 +3793,10 @@
         <v>20</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3412,10 +3810,10 @@
         <v>21</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3429,10 +3827,10 @@
         <v>22</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3446,10 +3844,10 @@
         <v>23</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="32" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3463,10 +3861,10 @@
         <v>24</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3480,10 +3878,10 @@
         <v>25</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3491,16 +3889,16 @@
         <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D113">
         <v>1</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3508,16 +3906,16 @@
         <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D114">
         <v>2</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3525,16 +3923,16 @@
         <v>3</v>
       </c>
       <c r="C115" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D115">
         <v>3</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3542,16 +3940,16 @@
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D116">
         <v>4</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3559,16 +3957,16 @@
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D117">
         <v>5</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3576,16 +3974,16 @@
         <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D118">
         <v>6</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3593,16 +3991,16 @@
         <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D119">
         <v>7</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="51" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3610,16 +4008,16 @@
         <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="68" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3627,19 +4025,1598 @@
         <v>3</v>
       </c>
       <c r="C121" t="s">
+        <v>124</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="68" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122" t="s">
+        <v>92</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123" t="s">
+        <v>92</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D121">
-        <v>2</v>
-      </c>
-      <c r="E121" s="4" t="s">
+    </row>
+    <row r="124" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s">
+        <v>92</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+    <row r="125" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="C125" t="s">
+        <v>92</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126" t="s">
+        <v>92</v>
+      </c>
+      <c r="D126">
         <v>5</v>
       </c>
+      <c r="E126" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>4</v>
+      </c>
+      <c r="C127" t="s">
+        <v>92</v>
+      </c>
+      <c r="D127">
+        <v>6</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>4</v>
+      </c>
+      <c r="C128" t="s">
+        <v>92</v>
+      </c>
+      <c r="D128">
+        <v>7</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129" t="s">
+        <v>92</v>
+      </c>
+      <c r="D129">
+        <v>8</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="C130" t="s">
+        <v>92</v>
+      </c>
+      <c r="D130">
+        <v>9</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>4</v>
+      </c>
+      <c r="C131" t="s">
+        <v>92</v>
+      </c>
+      <c r="D131">
+        <v>10</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132" t="s">
+        <v>92</v>
+      </c>
+      <c r="D132">
+        <v>11</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133" t="s">
+        <v>92</v>
+      </c>
+      <c r="D133">
+        <v>12</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>4</v>
+      </c>
+      <c r="C134" t="s">
+        <v>92</v>
+      </c>
+      <c r="D134">
+        <v>13</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>92</v>
+      </c>
+      <c r="D135">
+        <v>14</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136" t="s">
+        <v>92</v>
+      </c>
+      <c r="D136">
+        <v>15</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137" t="s">
+        <v>92</v>
+      </c>
+      <c r="D137">
+        <v>16</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+      <c r="C138" t="s">
+        <v>92</v>
+      </c>
+      <c r="D138">
+        <v>17</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139" t="s">
+        <v>92</v>
+      </c>
+      <c r="D139">
+        <v>18</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>4</v>
+      </c>
+      <c r="C140" t="s">
+        <v>92</v>
+      </c>
+      <c r="D140">
+        <v>19</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s">
+        <v>92</v>
+      </c>
+      <c r="D141">
+        <v>20</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>4</v>
+      </c>
+      <c r="C142" t="s">
+        <v>92</v>
+      </c>
+      <c r="D142">
+        <v>21</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>4</v>
+      </c>
+      <c r="C143" t="s">
+        <v>92</v>
+      </c>
+      <c r="D143">
+        <v>22</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>92</v>
+      </c>
+      <c r="D144">
+        <v>23</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>4</v>
+      </c>
+      <c r="C145" t="s">
+        <v>92</v>
+      </c>
+      <c r="D145">
+        <v>24</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+      <c r="C146" t="s">
+        <v>92</v>
+      </c>
+      <c r="D146">
+        <v>25</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
+        <v>124</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="68" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>4</v>
+      </c>
+      <c r="C148" t="s">
+        <v>124</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>4</v>
+      </c>
+      <c r="C149" t="s">
+        <v>124</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="68" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>4</v>
+      </c>
+      <c r="C150" t="s">
+        <v>124</v>
+      </c>
+      <c r="D150">
+        <v>4</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3678CA-3602-494A-BDA8-D0DC73F7A4F8}">
+  <dimension ref="A1:J150"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="223.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="34" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>204</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G89" s="4"/>
+    </row>
+    <row r="90" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G94" s="4"/>
+    </row>
+    <row r="95" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G97" s="4"/>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G98" s="4"/>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G99" s="4"/>
+    </row>
+    <row r="100" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G100" s="4"/>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G101" s="4"/>
+    </row>
+    <row r="102" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G102" s="4"/>
+    </row>
+    <row r="103" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G103" s="4"/>
+    </row>
+    <row r="104" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G104" s="4"/>
+    </row>
+    <row r="105" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G105" s="4"/>
+    </row>
+    <row r="106" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G106" s="4"/>
+    </row>
+    <row r="107" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G109" s="4"/>
+    </row>
+    <row r="110" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G112" s="4"/>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G113" s="4"/>
+    </row>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G114" s="4"/>
+    </row>
+    <row r="115" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G115" s="4"/>
+    </row>
+    <row r="116" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G116" s="4"/>
+    </row>
+    <row r="117" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G117" s="4"/>
+    </row>
+    <row r="118" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G118" s="4"/>
+    </row>
+    <row r="119" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G119" s="4"/>
+    </row>
+    <row r="120" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G120" s="4"/>
+    </row>
+    <row r="121" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G121" s="4"/>
+    </row>
+    <row r="122" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G122" s="3"/>
+    </row>
+    <row r="123" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G123" s="4"/>
+    </row>
+    <row r="124" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G124" s="4"/>
+    </row>
+    <row r="125" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G125" s="4"/>
+    </row>
+    <row r="126" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G126" s="4"/>
+    </row>
+    <row r="127" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G127" s="4"/>
+    </row>
+    <row r="128" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G128" s="5"/>
+    </row>
+    <row r="129" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G129" s="5"/>
+    </row>
+    <row r="130" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G130" s="5"/>
+    </row>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G131" s="5"/>
+    </row>
+    <row r="132" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G132" s="5"/>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G133" s="5"/>
+    </row>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G134" s="5"/>
+    </row>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G135" s="5"/>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G136" s="5"/>
+    </row>
+    <row r="137" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G137" s="5"/>
+    </row>
+    <row r="138" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G138" s="5"/>
+    </row>
+    <row r="139" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G139" s="4"/>
+    </row>
+    <row r="140" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G140" s="5"/>
+    </row>
+    <row r="141" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G141" s="5"/>
+    </row>
+    <row r="142" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G142" s="2"/>
+    </row>
+    <row r="143" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G143" s="5"/>
+    </row>
+    <row r="144" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G144" s="5"/>
+    </row>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G145" s="2"/>
+    </row>
+    <row r="146" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G146" s="5"/>
+    </row>
+    <row r="147" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G147" s="4"/>
+    </row>
+    <row r="148" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G148" s="4"/>
+    </row>
+    <row r="149" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G149" s="4"/>
+    </row>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G150" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/CHATGAME/Assets/Data/dialogue.xlsx
+++ b/CHATGAME/Assets/Data/dialogue.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99ccd577c8ac53ff/문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1346" documentId="8_{9C52D8B5-26B1-41EA-82C5-0CD20B54A85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC06C9E2-AC13-42A2-90D3-50921723B809}"/>
+  <xr:revisionPtr revIDLastSave="1347" documentId="8_{9C52D8B5-26B1-41EA-82C5-0CD20B54A85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C2C6A84-07AD-4C51-B667-3867B99BE633}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
-    <sheet name="Event" sheetId="2" r:id="rId2"/>
+    <sheet name="Date" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1964,7 +1964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB6AF96-1BBB-40CA-B5E6-6C0144248FD4}">
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
@@ -4542,7 +4542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3678CA-3602-494A-BDA8-D0DC73F7A4F8}">
   <dimension ref="A1:J150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>

--- a/CHATGAME/Assets/Data/dialogue.xlsx
+++ b/CHATGAME/Assets/Data/dialogue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99ccd577c8ac53ff/문서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\one\Desktop\ChatGame\AI-CHATBOT-GAME\CHATGAME\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1347" documentId="8_{9C52D8B5-26B1-41EA-82C5-0CD20B54A85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C2C6A84-07AD-4C51-B667-3867B99BE633}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6C9329-9743-4FC1-8C57-B850522CFFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
+    <workbookView xWindow="28905" yWindow="1140" windowWidth="27255" windowHeight="13245" activeTab="1" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
@@ -1639,10 +1639,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1968,16 +1964,16 @@
       <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.9140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="223.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="223.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1994,7 +1990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2011,7 +2007,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2028,7 +2024,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2045,7 +2041,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2062,7 +2058,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2079,7 +2075,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2096,7 +2092,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2113,7 +2109,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2130,7 +2126,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2147,7 +2143,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2164,7 +2160,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2181,7 +2177,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2198,7 +2194,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2215,7 +2211,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2232,7 +2228,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2249,7 +2245,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="48" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2266,7 +2262,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="48" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2283,7 +2279,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2300,7 +2296,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="48" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2317,7 +2313,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2334,7 +2330,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2351,7 +2347,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2368,7 +2364,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2385,7 +2381,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2402,7 +2398,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2419,7 +2415,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2436,7 +2432,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2453,7 +2449,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2470,7 +2466,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2487,7 +2483,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2504,7 +2500,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2521,7 +2517,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2538,7 +2534,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2555,7 +2551,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2572,7 +2568,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2589,7 +2585,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2606,7 +2602,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2623,7 +2619,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2640,7 +2636,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2657,7 +2653,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2674,7 +2670,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2691,7 +2687,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2708,7 +2704,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2725,7 +2721,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2742,7 +2738,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="64" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2759,7 +2755,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="48" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2776,7 +2772,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2793,7 +2789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2810,7 +2806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2827,7 +2823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2844,7 +2840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2861,7 +2857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2878,7 +2874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2895,7 +2891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2912,7 +2908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2929,7 +2925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2946,7 +2942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2963,7 +2959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2980,7 +2976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2997,7 +2993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3014,7 +3010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3031,7 +3027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3048,7 +3044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3065,7 +3061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3082,7 +3078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3099,7 +3095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3116,7 +3112,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3133,7 +3129,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3150,7 +3146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3167,7 +3163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3184,7 +3180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3201,7 +3197,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3218,7 +3214,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3235,7 +3231,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3252,7 +3248,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3269,7 +3265,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3286,7 +3282,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3303,7 +3299,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3320,7 +3316,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3337,7 +3333,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3354,7 +3350,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3371,7 +3367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3388,7 +3384,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3405,7 +3401,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3422,7 +3418,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3439,7 +3435,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3456,7 +3452,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3473,7 +3469,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3490,7 +3486,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3507,7 +3503,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3524,7 +3520,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3541,7 +3537,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3558,7 +3554,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3575,7 +3571,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3592,7 +3588,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3609,7 +3605,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3626,7 +3622,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3643,7 +3639,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3660,7 +3656,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3677,7 +3673,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3694,7 +3690,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3711,7 +3707,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3728,7 +3724,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3745,7 +3741,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3762,7 +3758,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3779,7 +3775,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3796,7 +3792,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3813,7 +3809,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3830,7 +3826,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3847,7 +3843,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3864,7 +3860,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3881,7 +3877,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3898,7 +3894,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3915,7 +3911,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3932,7 +3928,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3949,7 +3945,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3966,7 +3962,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3983,7 +3979,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4000,7 +3996,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4017,7 +4013,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="68" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4034,7 +4030,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="68" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4051,7 +4047,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4068,7 +4064,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4085,7 +4081,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4102,7 +4098,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4119,7 +4115,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4136,7 +4132,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4153,7 +4149,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4170,7 +4166,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4187,7 +4183,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4204,7 +4200,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4221,7 +4217,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4238,7 +4234,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4255,7 +4251,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4272,7 +4268,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4289,7 +4285,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4306,7 +4302,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4323,7 +4319,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4340,7 +4336,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4357,7 +4353,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4374,7 +4370,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4391,7 +4387,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4408,7 +4404,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4425,7 +4421,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="32" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4442,7 +4438,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4459,7 +4455,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4476,7 +4472,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="68" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4493,7 +4489,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4510,7 +4506,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="68" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4527,7 +4523,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -4542,26 +4538,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3678CA-3602-494A-BDA8-D0DC73F7A4F8}">
   <dimension ref="A1:J150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.9140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.9140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="223.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="223.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.08203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4584,7 +4580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4607,7 +4603,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4631,7 +4627,7 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4654,7 +4650,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4677,7 +4673,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4700,7 +4696,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4723,7 +4719,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4746,7 +4742,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4769,7 +4765,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4792,7 +4788,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4815,7 +4811,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4838,7 +4834,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4861,7 +4857,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4884,7 +4880,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4907,7 +4903,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4930,7 +4926,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4953,7 +4949,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4976,7 +4972,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4999,7 +4995,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5022,7 +5018,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5045,7 +5041,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5068,7 +5064,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5091,7 +5087,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5114,7 +5110,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="34" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5137,7 +5133,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5163,7 +5159,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5186,7 +5182,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5209,7 +5205,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5232,7 +5228,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5255,367 +5251,367 @@
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="102" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="104" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G104" s="4"/>
     </row>
-    <row r="105" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="105" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G105" s="4"/>
     </row>
-    <row r="106" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="106" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G106" s="4"/>
     </row>
-    <row r="107" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="107" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G107" s="4"/>
     </row>
-    <row r="108" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="108" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="109" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G109" s="4"/>
     </row>
-    <row r="110" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="110" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G110" s="4"/>
     </row>
-    <row r="111" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="111" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="112" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G112" s="4"/>
     </row>
-    <row r="113" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="113" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G113" s="4"/>
     </row>
-    <row r="114" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="114" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G114" s="4"/>
     </row>
-    <row r="115" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="115" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G115" s="4"/>
     </row>
-    <row r="116" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="116" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G116" s="4"/>
     </row>
-    <row r="117" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="117" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G117" s="4"/>
     </row>
-    <row r="118" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="118" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G118" s="4"/>
     </row>
-    <row r="119" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="119" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G119" s="4"/>
     </row>
-    <row r="120" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="120" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G120" s="4"/>
     </row>
-    <row r="121" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="121" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G121" s="4"/>
     </row>
-    <row r="122" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="122" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="123" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G123" s="4"/>
     </row>
-    <row r="124" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="124" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G124" s="4"/>
     </row>
-    <row r="125" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="125" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G125" s="4"/>
     </row>
-    <row r="126" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="126" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G126" s="4"/>
     </row>
-    <row r="127" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="127" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G127" s="4"/>
     </row>
-    <row r="128" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="128" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G128" s="5"/>
     </row>
-    <row r="129" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="129" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G129" s="5"/>
     </row>
-    <row r="130" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="130" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G130" s="5"/>
     </row>
-    <row r="131" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="131" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G131" s="5"/>
     </row>
-    <row r="132" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="132" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G132" s="5"/>
     </row>
-    <row r="133" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="133" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G133" s="5"/>
     </row>
-    <row r="134" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="134" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G134" s="5"/>
     </row>
-    <row r="135" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="135" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G135" s="5"/>
     </row>
-    <row r="136" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="136" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G136" s="5"/>
     </row>
-    <row r="137" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="137" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G137" s="5"/>
     </row>
-    <row r="138" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="138" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G138" s="5"/>
     </row>
-    <row r="139" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="139" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="140" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="141" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="142" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="143" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="144" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G144" s="5"/>
     </row>
-    <row r="145" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="145" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="146" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="147" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="148" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="149" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="150" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G150" s="4"/>
     </row>
   </sheetData>

--- a/CHATGAME/Assets/Data/dialogue.xlsx
+++ b/CHATGAME/Assets/Data/dialogue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99ccd577c8ac53ff/문서/GitHub/AI-CHATBOT-GAME/CHATGAME/Assets/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1007" documentId="13_ncr:1_{7A6DE552-CDB3-490B-A747-83E7046981D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCA8DAE6-5AB7-42B7-9FF5-DF0D7D427FBE}"/>
+  <xr:revisionPtr revIDLastSave="1008" documentId="13_ncr:1_{7A6DE552-CDB3-490B-A747-83E7046981D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62545C30-67DC-4A42-A0FF-8063CBEDEE2C}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="761">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1244,10 +1244,6 @@
   <si>
     <t>평일이라 그런지 영화관에는 사람이 거의 없었다. 캄캄하던 스크린이 밝아지며 영화가 시작한다.
 리코는 이따금 콜라를 홀짝이며 편하게 영화를 감상한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -12441,7 +12437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12471,9 +12467,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -12526,6 +12519,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12847,21 +12844,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB6AF96-1BBB-40CA-B5E6-6C0144248FD4}">
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.58203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.58203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="129.75" style="11" customWidth="1"/>
-    <col min="7" max="7" width="84.4140625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="166.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="11"/>
+    <col min="1" max="1" width="4.58203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.58203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.58203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="129.75" style="10" customWidth="1"/>
+    <col min="7" max="7" width="84.4140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="166.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -12881,13 +12878,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="32.5">
@@ -12904,16 +12901,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="G2" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>394</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33">
@@ -12930,16 +12927,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>396</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33">
@@ -12956,16 +12953,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G4" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>398</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="49">
@@ -12982,16 +12979,16 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="G5" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>400</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="33">
@@ -13008,16 +13005,16 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G6" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>402</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="48">
@@ -13034,16 +13031,16 @@
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="G7" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>404</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="49">
@@ -13060,16 +13057,16 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>406</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="49">
@@ -13086,19 +13083,19 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="G9" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="49.5">
+    </row>
+    <row r="10" spans="1:8" ht="48.5">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -13112,16 +13109,16 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>410</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="33">
@@ -13138,16 +13135,16 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="G11" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>412</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="32.5">
@@ -13164,16 +13161,16 @@
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="G12" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>414</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="32.5">
@@ -13190,16 +13187,16 @@
         <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="G13" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>416</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="32.5">
@@ -13218,17 +13215,17 @@
       <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="G14" s="12" t="s">
+      <c r="F14" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="49.5">
+    </row>
+    <row r="15" spans="1:8" ht="33">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -13244,14 +13241,14 @@
       <c r="E15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G15" s="12" t="s">
+      <c r="F15" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>420</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="32.5">
@@ -13270,17 +13267,17 @@
       <c r="E16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="G16" s="12" t="s">
+      <c r="F16" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="66">
+    </row>
+    <row r="17" spans="1:8" ht="64">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -13294,16 +13291,16 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="G17" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>424</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="32.5">
@@ -13320,16 +13317,16 @@
         <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="G18" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>426</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="33">
@@ -13346,19 +13343,19 @@
         <v>3</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="G19" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="66">
+    </row>
+    <row r="20" spans="1:8" ht="64">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -13374,17 +13371,17 @@
       <c r="E20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="G20" s="12" t="s">
+      <c r="F20" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="H20" s="12" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="49.5">
+    </row>
+    <row r="21" spans="1:8" ht="48">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -13400,14 +13397,14 @@
       <c r="E21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G21" s="12" t="s">
+      <c r="F21" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>432</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="48">
@@ -13426,17 +13423,17 @@
       <c r="E22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="49">
+      <c r="F22" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="48">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -13452,14 +13449,14 @@
       <c r="E23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>435</v>
+      <c r="F23" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="49.5">
@@ -13478,14 +13475,14 @@
       <c r="E24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="G24" s="12" t="s">
+      <c r="F24" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>436</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="33">
@@ -13504,17 +13501,17 @@
       <c r="E25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="49">
+      <c r="F25" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="32.5">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -13530,14 +13527,14 @@
       <c r="E26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>438</v>
+      <c r="F26" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="33">
@@ -13556,14 +13553,14 @@
       <c r="E27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>439</v>
+      <c r="F27" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="32.5">
@@ -13582,14 +13579,14 @@
       <c r="E28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>440</v>
+      <c r="F28" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="32.5">
@@ -13608,14 +13605,14 @@
       <c r="E29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>441</v>
+      <c r="F29" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="32.5">
@@ -13634,17 +13631,17 @@
       <c r="E30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="49">
+      <c r="F30" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="33">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -13660,14 +13657,14 @@
       <c r="E31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>443</v>
+      <c r="F31" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="32.5">
@@ -13686,14 +13683,14 @@
       <c r="E32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>444</v>
+      <c r="F32" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="32.5">
@@ -13712,14 +13709,14 @@
       <c r="E33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>445</v>
+      <c r="F33" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="32.5">
@@ -13738,14 +13735,14 @@
       <c r="E34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>446</v>
+      <c r="F34" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="32.5">
@@ -13764,14 +13761,14 @@
       <c r="E35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>447</v>
+      <c r="F35" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="33">
@@ -13790,14 +13787,14 @@
       <c r="E36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F36" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>448</v>
+      <c r="F36" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="33">
@@ -13816,14 +13813,14 @@
       <c r="E37" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>449</v>
+      <c r="F37" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="32.5">
@@ -13842,14 +13839,14 @@
       <c r="E38" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>450</v>
+      <c r="F38" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="32.5">
@@ -13868,14 +13865,14 @@
       <c r="E39" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>451</v>
+      <c r="F39" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="32.5">
@@ -13894,14 +13891,14 @@
       <c r="E40" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>452</v>
+      <c r="F40" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="33">
@@ -13920,14 +13917,14 @@
       <c r="E41" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>453</v>
+      <c r="F41" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="32.5">
@@ -13946,14 +13943,14 @@
       <c r="E42" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>454</v>
+      <c r="F42" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="32">
@@ -13972,92 +13969,92 @@
       <c r="E43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>241</v>
+      <c r="F43" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="49">
       <c r="A44" s="10">
         <v>43</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>2</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="10">
         <v>1</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>599</v>
-      </c>
-      <c r="G44" s="19" t="s">
+      <c r="E44" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="H44" s="19" t="s">
         <v>585</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="48">
       <c r="A45" s="10">
         <v>44</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <v>2</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="10">
         <v>2</v>
       </c>
-      <c r="E45" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>600</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>587</v>
+      <c r="E45" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="48">
       <c r="A46" s="10">
         <v>45</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <v>2</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="10">
         <v>3</v>
       </c>
-      <c r="E46" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>574</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>588</v>
+      <c r="E46" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -14076,14 +14073,14 @@
       <c r="E47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>293</v>
+      <c r="F47" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -14102,14 +14099,14 @@
       <c r="E48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F48" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>294</v>
+      <c r="F48" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -14128,14 +14125,14 @@
       <c r="E49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>295</v>
+      <c r="F49" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -14154,14 +14151,14 @@
       <c r="E50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>296</v>
+      <c r="F50" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="32">
@@ -14180,14 +14177,14 @@
       <c r="E51" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>297</v>
+      <c r="F51" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="32">
@@ -14206,14 +14203,14 @@
       <c r="E52" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>298</v>
+      <c r="F52" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="32">
@@ -14232,14 +14229,14 @@
       <c r="E53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="H53" s="16" t="s">
-        <v>462</v>
+      <c r="F53" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -14258,14 +14255,14 @@
       <c r="E54" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>299</v>
+      <c r="F54" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -14284,14 +14281,14 @@
       <c r="E55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>300</v>
+      <c r="F55" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -14310,14 +14307,14 @@
       <c r="E56" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>301</v>
+      <c r="F56" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="32">
@@ -14336,14 +14333,14 @@
       <c r="E57" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>322</v>
+      <c r="F57" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -14362,14 +14359,14 @@
       <c r="E58" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F58" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>323</v>
+      <c r="F58" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -14388,14 +14385,14 @@
       <c r="E59" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F59" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>324</v>
+      <c r="F59" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -14414,14 +14411,14 @@
       <c r="E60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>325</v>
+      <c r="F60" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -14440,14 +14437,14 @@
       <c r="E61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F61" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>326</v>
+      <c r="F61" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -14466,14 +14463,14 @@
       <c r="E62" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F62" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>327</v>
+      <c r="F62" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -14492,14 +14489,14 @@
       <c r="E63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F63" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>328</v>
+      <c r="F63" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -14518,14 +14515,14 @@
       <c r="E64" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F64" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>329</v>
+      <c r="F64" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -14544,14 +14541,14 @@
       <c r="E65" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F65" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>330</v>
+      <c r="F65" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -14570,14 +14567,14 @@
       <c r="E66" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F66" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="H66" s="15" t="s">
-        <v>331</v>
+      <c r="F66" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -14594,16 +14591,16 @@
         <v>21</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F67" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="F67" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="H67" s="15" t="s">
-        <v>373</v>
+      <c r="G67" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -14622,14 +14619,14 @@
       <c r="E68" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F68" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="H68" s="15" t="s">
-        <v>374</v>
+      <c r="F68" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -14648,14 +14645,14 @@
       <c r="E69" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F69" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>375</v>
+      <c r="F69" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -14674,14 +14671,14 @@
       <c r="E70" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F70" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>376</v>
+      <c r="F70" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -14700,14 +14697,14 @@
       <c r="E71" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F71" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>377</v>
+      <c r="F71" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -14726,14 +14723,14 @@
       <c r="E72" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F72" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="H72" s="15" t="s">
-        <v>378</v>
+      <c r="F72" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -14752,14 +14749,14 @@
       <c r="E73" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="H73" s="15" t="s">
-        <v>379</v>
+      <c r="F73" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -14778,14 +14775,14 @@
       <c r="E74" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F74" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="H74" s="15" t="s">
-        <v>380</v>
+      <c r="F74" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -14804,14 +14801,14 @@
       <c r="E75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F75" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>381</v>
+      <c r="F75" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -14830,14 +14827,14 @@
       <c r="E76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F76" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>382</v>
+      <c r="F76" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -14856,14 +14853,14 @@
       <c r="E77" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F77" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="H77" s="15" t="s">
-        <v>383</v>
+      <c r="F77" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -14882,14 +14879,14 @@
       <c r="E78" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F78" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="H78" s="15" t="s">
-        <v>384</v>
+      <c r="F78" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -14908,14 +14905,14 @@
       <c r="E79" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F79" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="H79" s="15" t="s">
-        <v>385</v>
+      <c r="F79" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -14934,14 +14931,14 @@
       <c r="E80" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F80" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="H80" s="15" t="s">
-        <v>386</v>
+      <c r="F80" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="H80" s="14" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -14960,14 +14957,14 @@
       <c r="E81" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F81" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="H81" s="15" t="s">
-        <v>387</v>
+      <c r="F81" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -14986,14 +14983,14 @@
       <c r="E82" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F82" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="G82" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="H82" s="15" t="s">
-        <v>388</v>
+      <c r="F82" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -15012,14 +15009,14 @@
       <c r="E83" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F83" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="H83" s="15" t="s">
-        <v>389</v>
+      <c r="F83" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -15038,14 +15035,14 @@
       <c r="E84" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F84" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="G84" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="H84" s="15" t="s">
-        <v>390</v>
+      <c r="F84" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -15064,14 +15061,14 @@
       <c r="E85" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F85" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="G85" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="H85" s="15" t="s">
-        <v>391</v>
+      <c r="F85" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -15090,14 +15087,14 @@
       <c r="E86" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F86" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="H86" s="15" t="s">
-        <v>392</v>
+      <c r="F86" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="64">
@@ -15113,17 +15110,17 @@
       <c r="D87" s="10">
         <v>1</v>
       </c>
-      <c r="E87" s="17" t="s">
+      <c r="E87" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F87" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="G87" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="H87" s="12" t="s">
-        <v>474</v>
+      <c r="F87" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="48">
@@ -15139,17 +15136,17 @@
       <c r="D88" s="10">
         <v>2</v>
       </c>
-      <c r="E88" s="12" t="s">
+      <c r="E88" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F88" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="G88" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="H88" s="12" t="s">
-        <v>475</v>
+      <c r="F88" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="48">
@@ -15165,17 +15162,17 @@
       <c r="D89" s="10">
         <v>3</v>
       </c>
-      <c r="E89" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="G89" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="H89" s="12" t="s">
-        <v>476</v>
+      <c r="E89" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="49.5">
@@ -15191,17 +15188,17 @@
       <c r="D90" s="10">
         <v>4</v>
       </c>
-      <c r="E90" s="12" t="s">
+      <c r="E90" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F90" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="G90" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="H90" s="12" t="s">
-        <v>477</v>
+      <c r="F90" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="48">
@@ -15217,17 +15214,17 @@
       <c r="D91" s="10">
         <v>5</v>
       </c>
-      <c r="E91" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="F91" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="G91" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="H91" s="12" t="s">
-        <v>478</v>
+      <c r="E91" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="33">
@@ -15243,17 +15240,17 @@
       <c r="D92" s="10">
         <v>6</v>
       </c>
-      <c r="E92" s="12" t="s">
+      <c r="E92" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F92" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="G92" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="H92" s="12" t="s">
-        <v>479</v>
+      <c r="F92" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="32.5">
@@ -15269,17 +15266,17 @@
       <c r="D93" s="10">
         <v>7</v>
       </c>
-      <c r="E93" s="12" t="s">
+      <c r="E93" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F93" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="G93" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="H93" s="12" t="s">
-        <v>480</v>
+      <c r="F93" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="48">
@@ -15295,17 +15292,17 @@
       <c r="D94" s="10">
         <v>8</v>
       </c>
-      <c r="E94" s="12" t="s">
+      <c r="E94" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F94" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="G94" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="H94" s="12" t="s">
-        <v>481</v>
+      <c r="F94" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="33">
@@ -15321,17 +15318,17 @@
       <c r="D95" s="10">
         <v>9</v>
       </c>
-      <c r="E95" s="12" t="s">
+      <c r="E95" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F95" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="G95" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="H95" s="12" t="s">
-        <v>482</v>
+      <c r="F95" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="48">
@@ -15347,17 +15344,17 @@
       <c r="D96" s="10">
         <v>10</v>
       </c>
-      <c r="E96" s="12" t="s">
+      <c r="E96" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F96" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="G96" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="H96" s="12" t="s">
-        <v>483</v>
+      <c r="F96" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="32.5">
@@ -15373,17 +15370,17 @@
       <c r="D97" s="10">
         <v>11</v>
       </c>
-      <c r="E97" s="12" t="s">
+      <c r="E97" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F97" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="G97" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="H97" s="12" t="s">
-        <v>497</v>
+      <c r="F97" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="33">
@@ -15399,17 +15396,17 @@
       <c r="D98" s="10">
         <v>12</v>
       </c>
-      <c r="E98" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="F98" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="H98" s="12" t="s">
-        <v>498</v>
+      <c r="E98" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="33">
@@ -15425,17 +15422,17 @@
       <c r="D99" s="10">
         <v>13</v>
       </c>
-      <c r="E99" s="12" t="s">
+      <c r="E99" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F99" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="H99" s="12" t="s">
-        <v>499</v>
+      <c r="F99" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="33">
@@ -15451,17 +15448,17 @@
       <c r="D100" s="10">
         <v>14</v>
       </c>
-      <c r="E100" s="12" t="s">
+      <c r="E100" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F100" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="G100" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="H100" s="12" t="s">
-        <v>500</v>
+      <c r="F100" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="33">
@@ -15477,17 +15474,17 @@
       <c r="D101" s="10">
         <v>15</v>
       </c>
-      <c r="E101" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="F101" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="G101" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="H101" s="12" t="s">
-        <v>501</v>
+      <c r="E101" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="48">
@@ -15503,17 +15500,17 @@
       <c r="D102" s="10">
         <v>16</v>
       </c>
-      <c r="E102" s="12" t="s">
+      <c r="E102" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F102" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="G102" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="H102" s="12" t="s">
-        <v>502</v>
+      <c r="F102" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="33">
@@ -15529,17 +15526,17 @@
       <c r="D103" s="10">
         <v>17</v>
       </c>
-      <c r="E103" s="12" t="s">
+      <c r="E103" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F103" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="G103" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="H103" s="12" t="s">
-        <v>503</v>
+      <c r="F103" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="33">
@@ -15555,17 +15552,17 @@
       <c r="D104" s="10">
         <v>18</v>
       </c>
-      <c r="E104" s="12" t="s">
+      <c r="E104" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F104" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="G104" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="H104" s="12" t="s">
-        <v>504</v>
+      <c r="F104" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="33">
@@ -15581,17 +15578,17 @@
       <c r="D105" s="10">
         <v>19</v>
       </c>
-      <c r="E105" s="12" t="s">
+      <c r="E105" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F105" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="G105" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="H105" s="12" t="s">
-        <v>505</v>
+      <c r="F105" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="32">
@@ -15607,17 +15604,17 @@
       <c r="D106" s="10">
         <v>20</v>
       </c>
-      <c r="E106" s="12" t="s">
+      <c r="E106" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F106" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="G106" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="H106" s="12" t="s">
-        <v>506</v>
+      <c r="F106" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="32.5">
@@ -15636,14 +15633,14 @@
       <c r="E107" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F107" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="G107" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="H107" s="12" t="s">
-        <v>551</v>
+      <c r="F107" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="33">
@@ -15659,17 +15656,17 @@
       <c r="D108" s="10">
         <v>22</v>
       </c>
-      <c r="E108" s="12" t="s">
+      <c r="E108" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F108" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="G108" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="H108" s="12" t="s">
-        <v>552</v>
+      <c r="F108" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="32.5">
@@ -15685,17 +15682,17 @@
       <c r="D109" s="10">
         <v>23</v>
       </c>
-      <c r="E109" s="12" t="s">
+      <c r="E109" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F109" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="G109" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="H109" s="12" t="s">
-        <v>553</v>
+      <c r="F109" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="32.5">
@@ -15714,14 +15711,14 @@
       <c r="E110" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F110" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="G110" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="H110" s="12" t="s">
-        <v>554</v>
+      <c r="F110" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="32.5">
@@ -15737,17 +15734,17 @@
       <c r="D111" s="10">
         <v>25</v>
       </c>
-      <c r="E111" s="12" t="s">
+      <c r="E111" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F111" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="G111" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="H111" s="12" t="s">
-        <v>555</v>
+      <c r="F111" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="32.5">
@@ -15763,17 +15760,17 @@
       <c r="D112" s="10">
         <v>1</v>
       </c>
-      <c r="E112" s="12" t="s">
+      <c r="E112" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F112" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="G112" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="H112" s="12" t="s">
-        <v>556</v>
+      <c r="F112" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="32.5">
@@ -15789,17 +15786,17 @@
       <c r="D113" s="10">
         <v>2</v>
       </c>
-      <c r="E113" s="12" t="s">
+      <c r="E113" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F113" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="G113" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="H113" s="12" t="s">
-        <v>557</v>
+      <c r="F113" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="32">
@@ -15815,17 +15812,17 @@
       <c r="D114" s="10">
         <v>3</v>
       </c>
-      <c r="E114" s="12" t="s">
+      <c r="E114" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F114" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="G114" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="H114" s="12" t="s">
-        <v>558</v>
+      <c r="F114" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="32.5">
@@ -15841,17 +15838,17 @@
       <c r="D115" s="10">
         <v>4</v>
       </c>
-      <c r="E115" s="12" t="s">
+      <c r="E115" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F115" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="G115" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="H115" s="12" t="s">
-        <v>559</v>
+      <c r="F115" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="33">
@@ -15867,17 +15864,17 @@
       <c r="D116" s="10">
         <v>5</v>
       </c>
-      <c r="E116" s="12" t="s">
+      <c r="E116" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F116" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="G116" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="H116" s="12" t="s">
-        <v>560</v>
+      <c r="F116" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="33">
@@ -15893,17 +15890,17 @@
       <c r="D117" s="10">
         <v>6</v>
       </c>
-      <c r="E117" s="12" t="s">
+      <c r="E117" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F117" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="G117" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="H117" s="12" t="s">
-        <v>561</v>
+      <c r="F117" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="G117" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="32.5">
@@ -15919,17 +15916,17 @@
       <c r="D118" s="10">
         <v>7</v>
       </c>
-      <c r="E118" s="12" t="s">
+      <c r="E118" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F118" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="G118" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="H118" s="12" t="s">
-        <v>562</v>
+      <c r="F118" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="49.5">
@@ -15946,16 +15943,16 @@
         <v>1</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F119" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="G119" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="H119" s="12" t="s">
-        <v>455</v>
+        <v>246</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="49">
@@ -15972,16 +15969,16 @@
         <v>2</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F120" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="G120" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="H120" s="11" t="s">
         <v>456</v>
-      </c>
-      <c r="H120" s="12" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="33">
@@ -15998,16 +15995,16 @@
         <v>3</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F121" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="G121" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="H121" s="12" t="s">
-        <v>458</v>
+        <v>242</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="32.5">
@@ -16024,16 +16021,16 @@
         <v>4</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F122" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="G122" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="H122" s="12" t="s">
-        <v>459</v>
+        <v>243</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="33">
@@ -16050,16 +16047,16 @@
         <v>5</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F123" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="G123" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="H123" s="12" t="s">
-        <v>460</v>
+        <v>244</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="33">
@@ -16076,16 +16073,16 @@
         <v>6</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F124" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="G124" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="H124" s="12" t="s">
-        <v>461</v>
+        <v>245</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="H124" s="11" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="62.5">
@@ -16101,17 +16098,17 @@
       <c r="D125" s="10">
         <v>1</v>
       </c>
-      <c r="E125" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="F125" s="12" t="s">
-        <v>601</v>
-      </c>
-      <c r="G125" s="12" t="s">
-        <v>575</v>
-      </c>
-      <c r="H125" s="12" t="s">
-        <v>589</v>
+      <c r="E125" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="32.5">
@@ -16127,17 +16124,17 @@
       <c r="D126" s="10">
         <v>2</v>
       </c>
-      <c r="E126" s="12" t="s">
+      <c r="E126" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F126" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="G126" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="H126" s="12" t="s">
-        <v>590</v>
+      <c r="F126" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="48">
@@ -16153,17 +16150,17 @@
       <c r="D127" s="10">
         <v>3</v>
       </c>
-      <c r="E127" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="F127" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="G127" s="12" t="s">
-        <v>577</v>
-      </c>
-      <c r="H127" s="12" t="s">
-        <v>591</v>
+      <c r="E127" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="H127" s="11" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="33">
@@ -16179,17 +16176,17 @@
       <c r="D128" s="10">
         <v>4</v>
       </c>
-      <c r="E128" s="12" t="s">
+      <c r="E128" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F128" s="12" t="s">
-        <v>603</v>
-      </c>
-      <c r="G128" s="12" t="s">
-        <v>578</v>
-      </c>
-      <c r="H128" s="12" t="s">
-        <v>592</v>
+      <c r="F128" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="H128" s="11" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="33">
@@ -16205,17 +16202,17 @@
       <c r="D129" s="10">
         <v>5</v>
       </c>
-      <c r="E129" s="12" t="s">
-        <v>568</v>
-      </c>
-      <c r="F129" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="G129" s="12" t="s">
-        <v>579</v>
-      </c>
-      <c r="H129" s="12" t="s">
-        <v>593</v>
+      <c r="E129" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="33">
@@ -16231,17 +16228,17 @@
       <c r="D130" s="10">
         <v>6</v>
       </c>
-      <c r="E130" s="12" t="s">
+      <c r="E130" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F130" s="12" t="s">
-        <v>572</v>
-      </c>
-      <c r="G130" s="12" t="s">
-        <v>580</v>
-      </c>
-      <c r="H130" s="12" t="s">
-        <v>594</v>
+      <c r="F130" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="49">
@@ -16257,17 +16254,17 @@
       <c r="D131" s="10">
         <v>7</v>
       </c>
-      <c r="E131" s="18" t="s">
+      <c r="E131" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="F131" s="12" t="s">
-        <v>605</v>
-      </c>
-      <c r="G131" s="12" t="s">
-        <v>581</v>
-      </c>
-      <c r="H131" s="12" t="s">
-        <v>595</v>
+      <c r="F131" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="H131" s="11" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="32.5">
@@ -16283,17 +16280,17 @@
       <c r="D132" s="10">
         <v>8</v>
       </c>
-      <c r="E132" s="18" t="s">
+      <c r="E132" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F132" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="G132" s="12" t="s">
-        <v>582</v>
-      </c>
-      <c r="H132" s="12" t="s">
-        <v>596</v>
+      <c r="F132" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="H132" s="11" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="33">
@@ -16309,17 +16306,17 @@
       <c r="D133" s="10">
         <v>9</v>
       </c>
-      <c r="E133" s="18" t="s">
+      <c r="E133" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F133" s="12" t="s">
-        <v>607</v>
-      </c>
-      <c r="G133" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="H133" s="12" t="s">
-        <v>597</v>
+      <c r="F133" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="H133" s="11" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="33">
@@ -16335,17 +16332,17 @@
       <c r="D134" s="10">
         <v>10</v>
       </c>
-      <c r="E134" s="18" t="s">
-        <v>569</v>
-      </c>
-      <c r="F134" s="12" t="s">
-        <v>608</v>
-      </c>
-      <c r="G134" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="H134" s="12" t="s">
-        <v>598</v>
+      <c r="E134" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="32">
@@ -16361,17 +16358,17 @@
       <c r="D135" s="10">
         <v>11</v>
       </c>
-      <c r="E135" s="18" t="s">
+      <c r="E135" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F135" s="12" t="s">
-        <v>609</v>
-      </c>
-      <c r="G135" s="12" t="s">
-        <v>626</v>
-      </c>
-      <c r="H135" s="12" t="s">
-        <v>641</v>
+      <c r="F135" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="H135" s="11" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="33">
@@ -16387,17 +16384,17 @@
       <c r="D136" s="10">
         <v>12</v>
       </c>
-      <c r="E136" s="18" t="s">
+      <c r="E136" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="F136" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="F136" s="12" t="s">
-        <v>611</v>
-      </c>
-      <c r="G136" s="12" t="s">
-        <v>627</v>
-      </c>
-      <c r="H136" s="12" t="s">
-        <v>642</v>
+      <c r="G136" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="33">
@@ -16413,17 +16410,17 @@
       <c r="D137" s="10">
         <v>13</v>
       </c>
-      <c r="E137" s="18" t="s">
+      <c r="E137" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="F137" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="F137" s="12" t="s">
-        <v>614</v>
-      </c>
-      <c r="G137" s="12" t="s">
-        <v>628</v>
-      </c>
-      <c r="H137" s="12" t="s">
-        <v>643</v>
+      <c r="G137" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="32.5">
@@ -16439,17 +16436,17 @@
       <c r="D138" s="10">
         <v>14</v>
       </c>
-      <c r="E138" s="18" t="s">
+      <c r="E138" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F138" s="12" t="s">
-        <v>612</v>
-      </c>
-      <c r="G138" s="12" t="s">
-        <v>629</v>
-      </c>
-      <c r="H138" s="12" t="s">
-        <v>644</v>
+      <c r="F138" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="33">
@@ -16465,17 +16462,17 @@
       <c r="D139" s="10">
         <v>15</v>
       </c>
-      <c r="E139" s="18" t="s">
+      <c r="E139" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F139" s="12" t="s">
-        <v>615</v>
-      </c>
-      <c r="G139" s="12" t="s">
-        <v>630</v>
-      </c>
-      <c r="H139" s="12" t="s">
-        <v>645</v>
+      <c r="F139" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="32.5">
@@ -16491,17 +16488,17 @@
       <c r="D140" s="10">
         <v>16</v>
       </c>
-      <c r="E140" s="18" t="s">
+      <c r="E140" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F140" s="12" t="s">
-        <v>616</v>
-      </c>
-      <c r="G140" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="H140" s="12" t="s">
-        <v>646</v>
+      <c r="F140" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="H140" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="32.5">
@@ -16517,17 +16514,17 @@
       <c r="D141" s="10">
         <v>17</v>
       </c>
-      <c r="E141" s="18" t="s">
+      <c r="E141" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F141" s="12" t="s">
-        <v>617</v>
-      </c>
-      <c r="G141" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="H141" s="12" t="s">
-        <v>647</v>
+      <c r="F141" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="33">
@@ -16543,17 +16540,17 @@
       <c r="D142" s="10">
         <v>18</v>
       </c>
-      <c r="E142" s="12" t="s">
+      <c r="E142" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F142" s="12" t="s">
-        <v>618</v>
-      </c>
-      <c r="G142" s="12" t="s">
-        <v>633</v>
-      </c>
-      <c r="H142" s="12" t="s">
-        <v>648</v>
+      <c r="F142" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="H142" s="11" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="32.5">
@@ -16569,17 +16566,17 @@
       <c r="D143" s="10">
         <v>19</v>
       </c>
-      <c r="E143" s="18" t="s">
+      <c r="E143" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F143" s="12" t="s">
-        <v>619</v>
-      </c>
-      <c r="G143" s="12" t="s">
-        <v>634</v>
-      </c>
-      <c r="H143" s="12" t="s">
-        <v>649</v>
+      <c r="F143" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="H143" s="11" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="32">
@@ -16595,17 +16592,17 @@
       <c r="D144" s="10">
         <v>20</v>
       </c>
-      <c r="E144" s="18" t="s">
+      <c r="E144" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F144" s="12" t="s">
-        <v>620</v>
-      </c>
-      <c r="G144" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="H144" s="12" t="s">
-        <v>650</v>
+      <c r="F144" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="H144" s="11" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="32.5">
@@ -16624,14 +16621,14 @@
       <c r="E145" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F145" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="G145" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="H145" s="12" t="s">
-        <v>651</v>
+      <c r="F145" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="H145" s="11" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="33">
@@ -16647,17 +16644,17 @@
       <c r="D146" s="10">
         <v>22</v>
       </c>
-      <c r="E146" s="18" t="s">
+      <c r="E146" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="F146" s="12" t="s">
-        <v>622</v>
-      </c>
-      <c r="G146" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="H146" s="12" t="s">
-        <v>652</v>
+      <c r="F146" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="32.5">
@@ -16673,17 +16670,17 @@
       <c r="D147" s="10">
         <v>23</v>
       </c>
-      <c r="E147" s="18" t="s">
+      <c r="E147" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F147" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="G147" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="H147" s="12" t="s">
-        <v>653</v>
+      <c r="F147" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="H147" s="11" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="32.5">
@@ -16702,14 +16699,14 @@
       <c r="E148" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F148" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="G148" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="H148" s="12" t="s">
-        <v>654</v>
+      <c r="F148" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="H148" s="11" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="32.5">
@@ -16725,17 +16722,17 @@
       <c r="D149" s="10">
         <v>25</v>
       </c>
-      <c r="E149" s="18" t="s">
+      <c r="E149" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="F149" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="G149" s="12" t="s">
-        <v>640</v>
-      </c>
-      <c r="H149" s="12" t="s">
-        <v>655</v>
+      <c r="F149" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="H149" s="11" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="32">
@@ -16754,14 +16751,14 @@
       <c r="E150" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F150" s="12" t="s">
-        <v>671</v>
-      </c>
-      <c r="G150" s="21" t="s">
-        <v>665</v>
+      <c r="F150" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="G150" s="20" t="s">
+        <v>664</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="32">
@@ -16777,17 +16774,17 @@
       <c r="D151" s="10">
         <v>2</v>
       </c>
-      <c r="E151" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="F151" s="12" t="s">
-        <v>672</v>
-      </c>
-      <c r="G151" s="12" t="s">
-        <v>666</v>
+      <c r="E151" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>665</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="32.5">
@@ -16803,17 +16800,17 @@
       <c r="D152" s="10">
         <v>3</v>
       </c>
-      <c r="E152" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="F152" s="12" t="s">
-        <v>670</v>
-      </c>
-      <c r="G152" s="12" t="s">
-        <v>667</v>
-      </c>
-      <c r="H152" s="12" t="s">
-        <v>664</v>
+      <c r="E152" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="48">
@@ -16829,17 +16826,17 @@
       <c r="D153" s="10">
         <v>4</v>
       </c>
-      <c r="E153" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="F153" s="12" t="s">
-        <v>673</v>
-      </c>
-      <c r="G153" s="12" t="s">
-        <v>668</v>
+      <c r="E153" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>667</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="48.5">
@@ -16855,28 +16852,23 @@
       <c r="D154" s="10">
         <v>5</v>
       </c>
-      <c r="E154" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="F154" s="12" t="s">
-        <v>674</v>
-      </c>
-      <c r="G154" s="12" t="s">
-        <v>669</v>
+      <c r="E154" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>668</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B155" s="10"/>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16888,8 +16880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3678CA-3602-494A-BDA8-D0DC73F7A4F8}">
   <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -16930,13 +16922,13 @@
         <v>4</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="41.5" customHeight="1">
@@ -16965,13 +16957,13 @@
         <v>129</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="53">
@@ -17000,13 +16992,13 @@
         <v>130</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>705</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>734</v>
+        <v>704</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="68">
@@ -17035,13 +17027,13 @@
         <v>131</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="54">
@@ -17070,13 +17062,13 @@
         <v>135</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="35">
@@ -17105,13 +17097,13 @@
         <v>133</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="54">
@@ -17140,13 +17132,13 @@
         <v>137</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="53">
@@ -17175,13 +17167,13 @@
         <v>136</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="51">
@@ -17210,13 +17202,13 @@
         <v>142</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="68">
@@ -17245,13 +17237,13 @@
         <v>140</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35">
@@ -17280,13 +17272,13 @@
         <v>141</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68">
@@ -17315,13 +17307,13 @@
         <v>144</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="36">
@@ -17350,13 +17342,13 @@
         <v>146</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="51">
@@ -17385,13 +17377,13 @@
         <v>148</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="52">
@@ -17420,13 +17412,13 @@
         <v>149</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="36">
@@ -17455,13 +17447,13 @@
         <v>150</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="54">
@@ -17490,13 +17482,13 @@
         <v>152</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="50.5">
@@ -17516,22 +17508,22 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G18">
         <v>17</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="36">
@@ -17551,22 +17543,22 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G19">
         <v>18</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="51">
@@ -17586,22 +17578,22 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G20">
         <v>19</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="68">
@@ -17621,22 +17613,22 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="53">
@@ -17656,22 +17648,22 @@
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G22">
         <v>21</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="72">
@@ -17691,22 +17683,22 @@
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G23">
         <v>22</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="54">
@@ -17726,22 +17718,22 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G24">
         <v>23</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="35">
@@ -17761,22 +17753,22 @@
         <v>2</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G25">
         <v>24</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="54">
@@ -17796,22 +17788,22 @@
         <v>3</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G26">
         <v>25</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="68">
@@ -17831,22 +17823,22 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G27">
         <v>26</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="35">
@@ -17866,22 +17858,22 @@
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G28">
         <v>27</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="51">
@@ -17901,22 +17893,22 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G29">
         <v>28</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="35">
@@ -17936,22 +17928,22 @@
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G30">
         <v>29</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="31" spans="1:11">
